--- a/src/attributions/attributions_saliency_traj_61.xlsx
+++ b/src/attributions/attributions_saliency_traj_61.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.17551927966997e-05</v>
+        <v>0.0004090412403456867</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0002392114256508648</v>
+        <v>0.02699384652078152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00126115302555263</v>
+        <v>0.0007491347496397793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003097919980064034</v>
+        <v>0.007611353415995836</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0004909763811156154</v>
+        <v>0.005055753514170647</v>
       </c>
       <c r="F2" t="n">
-        <v>9.602889622328803e-05</v>
+        <v>0.01243515871465206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002218756562797353</v>
+        <v>0.001642400166019797</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008530940394848585</v>
+        <v>0.01777839846909046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000542264839168638</v>
+        <v>0.02791700325906277</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001593579509062693</v>
+        <v>0.005998985841870308</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001802833285182714</v>
+        <v>0.02040739357471466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001111748046241701</v>
+        <v>2.758530899882317e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001824955106712878</v>
+        <v>0.01761376857757568</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0001963427930604666</v>
+        <v>0.002107754349708557</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001846141676651314</v>
+        <v>0.01177569758147001</v>
       </c>
       <c r="P2" t="n">
-        <v>1.864714977273252e-05</v>
+        <v>0.004193746950477362</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0008661368628963828</v>
+        <v>0.01175238005816936</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0006417008698917925</v>
+        <v>0.02769133262336254</v>
       </c>
       <c r="S2" t="n">
-        <v>2.427336221444421e-05</v>
+        <v>0.002105000661686063</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0005892259650863707</v>
+        <v>0.001135578379034996</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0001090197838493623</v>
+        <v>0.004594718106091022</v>
       </c>
       <c r="V2" t="n">
-        <v>8.617153071099892e-05</v>
+        <v>0.001529138069599867</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0002759973285719752</v>
+        <v>0.002133653732016683</v>
       </c>
       <c r="X2" t="n">
-        <v>2.084794687107205e-05</v>
+        <v>0.009275980293750763</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001133219921030104</v>
+        <v>0.0001204267900902778</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0001090745790861547</v>
+        <v>0.001299710595048964</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.937593570910394e-05</v>
+        <v>0.0022443444468081</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0001001948257908225</v>
+        <v>0.006095580291002989</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0001607607991900295</v>
+        <v>0.0009125154465436935</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.668739610584453e-05</v>
+        <v>0.01518395077437162</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0002939520345535129</v>
+        <v>0.002106142928823829</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0001080647198250517</v>
+        <v>0.0001901104114949703</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.82304351660423e-05</v>
+        <v>0.004912058357149363</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0001288639614358544</v>
+        <v>0.004280923865735531</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.000245503440964967</v>
+        <v>0.002332820557057858</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0005106466123834252</v>
+        <v>0.001419260166585445</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.547285501146689e-05</v>
+        <v>0.002768927253782749</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.000222971459152177</v>
+        <v>0.001046070596203208</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0002165496262023225</v>
+        <v>0.001700633787550032</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.808396963402629e-05</v>
+        <v>0.001561796292662621</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0002106598694808781</v>
+        <v>0.004417357034981251</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.374977627070621e-05</v>
+        <v>0.002603535074740648</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0001120615634135902</v>
+        <v>0.001920192851684988</v>
       </c>
       <c r="AR2" t="n">
-        <v>6.11762297921814e-05</v>
+        <v>0.0008986648172140121</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.868238152586855e-05</v>
+        <v>0.002997978590428829</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.42956440767739e-05</v>
+        <v>0.0009849033085629344</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0001234056398971006</v>
+        <v>0.02691733092069626</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0006498621078208089</v>
+        <v>0.005191692151129246</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0001727703493088484</v>
+        <v>0.0009536574361845851</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.000126427155919373</v>
+        <v>0.02215858921408653</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0003964801144320518</v>
+        <v>0.001186423236504197</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7.844060019124299e-05</v>
+        <v>0.005944941192865372</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0005932836793363094</v>
+        <v>0.00538515904918313</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0001432167191524059</v>
+        <v>0.005050963256508112</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.812406430370174e-05</v>
+        <v>0.004294943064451218</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0001456291793147102</v>
+        <v>0.001087642274796963</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0003365329466760159</v>
+        <v>0.003580590477213264</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0001965093106264248</v>
+        <v>0.001756644807755947</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0003554665599949658</v>
+        <v>0.003672139253467321</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0001931534789036959</v>
+        <v>0.01559454668313265</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0001103191098081879</v>
+        <v>0.001689962344244123</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0002004669950110838</v>
+        <v>0.005232334602624178</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.877258182503283e-05</v>
+        <v>0.02612435445189476</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.585402398835868e-07</v>
+        <v>0.003550184657797217</v>
       </c>
       <c r="BM2" t="n">
-        <v>9.839147242018953e-05</v>
+        <v>0.0001858859322965145</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0002259906905237585</v>
+        <v>0.001976637402549386</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.000142685355967842</v>
+        <v>0.0009066285565495491</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0001852103450801224</v>
+        <v>0.02282570861279964</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0001627679303055629</v>
+        <v>0.00673892255872488</v>
       </c>
       <c r="BR2" t="n">
-        <v>7.833661220502108e-05</v>
+        <v>0.006035078782588243</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0002093222428811714</v>
+        <v>0.002588376868516207</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.000192112842341885</v>
+        <v>0.008760870434343815</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0001878736802609637</v>
+        <v>0.001094601815566421</v>
       </c>
       <c r="BV2" t="n">
-        <v>5.499055623658933e-05</v>
+        <v>0.0154092088341713</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0003132646670565009</v>
+        <v>0.006046425551176071</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.446558391966391e-05</v>
+        <v>0.001525337225757539</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0001101127782021649</v>
+        <v>0.006219428963959217</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001176041041617282</v>
+        <v>0.003907156176865101</v>
       </c>
       <c r="CA2" t="n">
-        <v>7.361586176557466e-05</v>
+        <v>0.0004759461735375226</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0002572271332610399</v>
+        <v>0.004236277192831039</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0002900735416915268</v>
+        <v>0.00362837640568614</v>
       </c>
       <c r="CD2" t="n">
-        <v>3.337401722092181e-05</v>
+        <v>0.0003144932561554015</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.770829658198636e-05</v>
+        <v>0.004660195671021938</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0002295832382515073</v>
+        <v>0.002930277958512306</v>
       </c>
       <c r="CG2" t="n">
-        <v>3.969817771576345e-05</v>
+        <v>8.500840340275317e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>8.008384611457586e-05</v>
+        <v>0.001301422365941107</v>
       </c>
       <c r="CI2" t="n">
-        <v>3.127782110823318e-05</v>
+        <v>0.001174350269138813</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.665499752969481e-05</v>
+        <v>0.001905757701024413</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0001418981119059026</v>
+        <v>0.002928392961621284</v>
       </c>
       <c r="CL2" t="n">
-        <v>8.875581261236221e-05</v>
+        <v>0.007036308757960796</v>
       </c>
       <c r="CM2" t="n">
-        <v>7.280333375092596e-05</v>
+        <v>0.008509236387908459</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0004128934233449399</v>
+        <v>0.006160559598356485</v>
       </c>
       <c r="CO2" t="n">
-        <v>7.279377314262092e-05</v>
+        <v>0.0007892040885053575</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0001364908821415156</v>
+        <v>0.008005899377167225</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0002251773257739842</v>
+        <v>0.01064194925129414</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0001043178053805605</v>
+        <v>0.006935223937034607</v>
       </c>
       <c r="CS2" t="n">
-        <v>6.450681394198909e-05</v>
+        <v>0.002608414739370346</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0002167445927625522</v>
+        <v>0.00974792055785656</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0002857806975953281</v>
+        <v>0.006284109782427549</v>
       </c>
       <c r="CV2" t="n">
-        <v>7.845056097721681e-05</v>
+        <v>0.0001950685691554099</v>
       </c>
       <c r="CW2" t="n">
-        <v>2.235286774521228e-05</v>
+        <v>0.005122276954352856</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0002467789454385638</v>
+        <v>0.002666151616722345</v>
       </c>
       <c r="CY2" t="n">
-        <v>3.995020506408764e-06</v>
+        <v>0.0003644166863523424</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0001161616455647163</v>
+        <v>0.0005617411225102842</v>
       </c>
       <c r="DA2" t="n">
-        <v>6.632167060161009e-05</v>
+        <v>0.0004083107924088836</v>
       </c>
       <c r="DB2" t="n">
-        <v>2.17067135963589e-05</v>
+        <v>0.001862784498371184</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0001230619382113218</v>
+        <v>0.002487949095666409</v>
       </c>
       <c r="DD2" t="n">
-        <v>3.76805110136047e-05</v>
+        <v>0.005151105113327503</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0003505055501591414</v>
+        <v>0.003985542338341475</v>
       </c>
       <c r="DF2" t="n">
-        <v>3.694199040182866e-05</v>
+        <v>0.003687832737341523</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0002226362557848915</v>
+        <v>0.004796176217496395</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0005543175502680242</v>
+        <v>0.006749233230948448</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0001410032855346799</v>
+        <v>0.001932529383338988</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0002679182507563382</v>
+        <v>0.003249363973736763</v>
       </c>
       <c r="DK2" t="n">
-        <v>5.387963028624654e-05</v>
+        <v>0.003584099467843771</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0001018153852783144</v>
+        <v>0.01393192820250988</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0002478626556694508</v>
+        <v>7.054791785776615e-05</v>
       </c>
       <c r="DN2" t="n">
-        <v>5.257005614112131e-05</v>
+        <v>0.002267258008942008</v>
       </c>
       <c r="DO2" t="n">
-        <v>3.929523882106878e-05</v>
+        <v>0.001699493732303381</v>
       </c>
       <c r="DP2" t="n">
-        <v>3.195737372152507e-05</v>
+        <v>0.003020163625478745</v>
       </c>
       <c r="DQ2" t="n">
-        <v>4.990547313354909e-05</v>
+        <v>0.003412616904824972</v>
       </c>
       <c r="DR2" t="n">
-        <v>5.462570698000491e-07</v>
+        <v>0.0021134321577847</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0001582216063980013</v>
+        <v>8.187582716345787e-05</v>
       </c>
       <c r="DT2" t="n">
-        <v>7.813383854227141e-05</v>
+        <v>0.002108425600454211</v>
       </c>
       <c r="DU2" t="n">
-        <v>2.032141856034286e-05</v>
+        <v>0.001420319080352783</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0002284687652718276</v>
+        <v>0.007925025187432766</v>
       </c>
       <c r="DW2" t="n">
-        <v>8.773439913056791e-05</v>
+        <v>0.0007846814696677029</v>
       </c>
       <c r="DX2" t="n">
-        <v>6.231576844584197e-05</v>
+        <v>0.01053351722657681</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.966341187653597e-05</v>
+        <v>0.002475787419825792</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.643593168410007e-05</v>
+        <v>0.001192264258861542</v>
       </c>
       <c r="EA2" t="n">
-        <v>7.043911318760365e-05</v>
+        <v>0.002174680121243</v>
       </c>
       <c r="EB2" t="n">
-        <v>9.601117926649749e-05</v>
+        <v>0.005595489870756865</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0001218875622726046</v>
+        <v>0.002590979682281613</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001880751369753852</v>
+        <v>0.004899545572698116</v>
       </c>
       <c r="EE2" t="n">
-        <v>3.136152736260556e-05</v>
+        <v>0.003444273956120014</v>
       </c>
       <c r="EF2" t="n">
-        <v>5.506454181158915e-05</v>
+        <v>0.001027242979034781</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0001390069955959916</v>
+        <v>0.003933800384402275</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.000112328547402285</v>
+        <v>0.005038994830101728</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.366132619295968e-05</v>
+        <v>0.002908751834183931</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0001312764798058197</v>
+        <v>0.0008092740899883211</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0002249219978693873</v>
+        <v>0.0009758482920005918</v>
       </c>
       <c r="EL2" t="n">
-        <v>3.024767829629127e-05</v>
+        <v>0.002644366817548871</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.000254417274845764</v>
+        <v>0.002760943723842502</v>
       </c>
       <c r="EN2" t="n">
-        <v>1.312409767706413e-05</v>
+        <v>0.007665093056857586</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0001475529279559851</v>
+        <v>0.0022263762075454</v>
       </c>
       <c r="EP2" t="n">
-        <v>7.971597369760275e-05</v>
+        <v>0.002944538602605462</v>
       </c>
       <c r="EQ2" t="n">
-        <v>3.501098399283364e-05</v>
+        <v>0.00388280488550663</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0001415632286807522</v>
+        <v>0.002492759609594941</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0001590574102010578</v>
+        <v>0.005134982522577047</v>
       </c>
       <c r="ET2" t="n">
-        <v>6.316504732239991e-05</v>
+        <v>0.003993449732661247</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.575528353394475e-07</v>
+        <v>0.002648412249982357</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0001415314618498087</v>
+        <v>0.001564147067256272</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0001919771311804652</v>
+        <v>0.003357816953212023</v>
       </c>
       <c r="EX2" t="n">
-        <v>8.763539881329052e-06</v>
+        <v>0.001508274348452687</v>
       </c>
       <c r="EY2" t="n">
-        <v>3.274908885941841e-05</v>
+        <v>0.005712586920708418</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0002442841068841517</v>
+        <v>0.002287240931764245</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.063376839738339e-05</v>
+        <v>0.001373268547467887</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0001025970850605518</v>
+        <v>0.0001052189763868228</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.971751044038683e-05</v>
+        <v>0.001838861382566392</v>
       </c>
       <c r="FD2" t="n">
-        <v>5.074585351394489e-05</v>
+        <v>0.0020653719548136</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0001246806787094101</v>
+        <v>0.002430200111120939</v>
       </c>
       <c r="FF2" t="n">
-        <v>8.105883898679167e-05</v>
+        <v>0.005665887147188187</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0001334902190137655</v>
+        <v>0.001630163169465959</v>
       </c>
       <c r="FH2" t="n">
-        <v>8.356249600183219e-05</v>
+        <v>0.002111775800585747</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0003389415796846151</v>
+        <v>0.001849506050348282</v>
       </c>
       <c r="FJ2" t="n">
-        <v>3.000270226038992e-06</v>
+        <v>0.002367843175306916</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.000141044773044996</v>
+        <v>0.006675688084214926</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.115306804422289e-05</v>
+        <v>0.0002891053445637226</v>
       </c>
       <c r="FM2" t="n">
-        <v>5.405603587860242e-06</v>
+        <v>8.578953566029668e-05</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.241432801180054e-05</v>
+        <v>0.001509478781372309</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0002235006395494565</v>
+        <v>0.0008615246042609215</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0004221894778311253</v>
+        <v>0.003233654424548149</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0002798269269987941</v>
+        <v>0.0002388851717114449</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0002611780073493719</v>
+        <v>0.004315497353672981</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0002141240984201431</v>
+        <v>0.001646636985242367</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0002250028192065656</v>
+        <v>0.006404714658856392</v>
       </c>
       <c r="FU2" t="n">
-        <v>2.898032107623294e-05</v>
+        <v>0.005717512685805559</v>
       </c>
       <c r="FV2" t="n">
-        <v>4.267520125722513e-05</v>
+        <v>0.008751906454563141</v>
       </c>
       <c r="FW2" t="n">
-        <v>9.313640475738794e-05</v>
+        <v>0.002962956903502345</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0001856952731031924</v>
+        <v>0.002962597645819187</v>
       </c>
       <c r="FY2" t="n">
-        <v>2.146365295629948e-05</v>
+        <v>0.005004758015275002</v>
       </c>
       <c r="FZ2" t="n">
-        <v>5.997978587402031e-05</v>
+        <v>0.003118860069662333</v>
       </c>
       <c r="GA2" t="n">
-        <v>2.704593498492613e-06</v>
+        <v>0.004483654629439116</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0002400146913714707</v>
+        <v>0.00588827021420002</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0001434539153706282</v>
+        <v>0.001305672689341009</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0001000327683868818</v>
+        <v>0.00569768063724041</v>
       </c>
       <c r="GE2" t="n">
-        <v>5.129606142872944e-05</v>
+        <v>0.003399390028789639</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0003138914762530476</v>
+        <v>0.00244759046472609</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.000152616819832474</v>
+        <v>0.001321692601777613</v>
       </c>
     </row>
     <row r="3">
@@ -2711,571 +2711,571 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01115462277084589</v>
+        <v>0.001823190599679947</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01093250792473555</v>
+        <v>0.016232680529356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1047611683607101</v>
+        <v>0.003957886248826981</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03569285199046135</v>
+        <v>0.005648873746395111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03202067688107491</v>
+        <v>0.008064805530011654</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01919888891279697</v>
+        <v>0.003733607474714518</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008199723437428474</v>
+        <v>0.01001240313053131</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003172270487993956</v>
+        <v>0.0002570764627307653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02290740422904491</v>
+        <v>0.009815272875130177</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01659879647195339</v>
+        <v>0.004122588317841291</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00569106824696064</v>
+        <v>0.01634147763252258</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1043058559298515</v>
+        <v>0.003216171637177467</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04305434226989746</v>
+        <v>0.003688236232846975</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004634293727576733</v>
+        <v>0.009508064016699791</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003793109441176057</v>
+        <v>0.0006267561111599207</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01092065498232841</v>
+        <v>0.00698092533275485</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.004697481170296669</v>
+        <v>0.0006245151744224131</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02966316230595112</v>
+        <v>0.008517278358340263</v>
       </c>
       <c r="S5" t="n">
-        <v>0.007250901777297258</v>
+        <v>0.001995858270674944</v>
       </c>
       <c r="T5" t="n">
-        <v>0.009106725454330444</v>
+        <v>0.005015947390347719</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001630166312679648</v>
+        <v>0.0004270285135135055</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0002769909624475986</v>
+        <v>0.005367682315409184</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02359470166265965</v>
+        <v>0.01140386424958706</v>
       </c>
       <c r="X5" t="n">
-        <v>0.005669913254678249</v>
+        <v>0.00440191850066185</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005295963026583195</v>
+        <v>0.00183233292773366</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.009444577619433403</v>
+        <v>0.001067275181412697</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.003891163505613804</v>
+        <v>0.0004926908877678216</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.005869819782674313</v>
+        <v>0.003911144565790892</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.00788261741399765</v>
+        <v>0.003371477127075195</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.006113410927355289</v>
+        <v>0.006837742403149605</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01190472301095724</v>
+        <v>0.002451263833791018</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01493057888001204</v>
+        <v>0.0005940943956375122</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.005089223850518465</v>
+        <v>0.002906476147472858</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.001265021041035652</v>
+        <v>0.0003800490230787545</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0002393675968050957</v>
+        <v>0.004475443158298731</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.02380155585706234</v>
+        <v>0.002690467750653625</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.005232509691268206</v>
+        <v>0.003634867025539279</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.001235738396644592</v>
+        <v>0.0004463897203095257</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.02127419970929623</v>
+        <v>0.0001541467208880931</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.00584577489644289</v>
+        <v>0.0007233851938508451</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.008622411638498306</v>
+        <v>0.000336262775817886</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.01432424038648605</v>
+        <v>0.0013528389390558</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.001896597212180495</v>
+        <v>0.001098381704650819</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0005306277889758348</v>
+        <v>0.002023715060204268</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.002442074939608574</v>
+        <v>0.001553795766085386</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.005821139551699162</v>
+        <v>0.00280941603705287</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.009600672870874405</v>
+        <v>0.01017780601978302</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.05288012698292732</v>
+        <v>0.004567365162074566</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.002928015543147922</v>
+        <v>0.008055748417973518</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.005216721445322037</v>
+        <v>0.003789470298215747</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.01231758296489716</v>
+        <v>0.00284236017614603</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.006312923971563578</v>
+        <v>0.01010951958596706</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0155213437974453</v>
+        <v>4.565692506730556e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.01796372979879379</v>
+        <v>0.0050347950309515</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.003678616834804416</v>
+        <v>0.0005861823447048664</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.002022262196987867</v>
+        <v>0.009802058339118958</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0272881630808115</v>
+        <v>0.005849417299032211</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.02155731059610844</v>
+        <v>0.0006697001517750323</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.02433875016868114</v>
+        <v>0.002379861660301685</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.0142477797344327</v>
+        <v>0.00286557525396347</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.006952166091650724</v>
+        <v>0.001818718737922609</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01375137269496918</v>
+        <v>0.002118911826983094</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01510090660303831</v>
+        <v>0.0002208820078521967</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.004776419140398502</v>
+        <v>0.0007806809735484421</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.006784741766750813</v>
+        <v>0.0001546152634546161</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.02440764755010605</v>
+        <v>0.002757845912128687</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.004341540858149529</v>
+        <v>0.002350292634218931</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01762744784355164</v>
+        <v>0.01171121001243591</v>
       </c>
       <c r="BQ5" t="n">
-        <v>3.403789014555514e-05</v>
+        <v>0.003115449799224734</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.007828084751963615</v>
+        <v>0.001512174494564533</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.006839110050350428</v>
+        <v>0.009024842642247677</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.006173162255436182</v>
+        <v>0.0002276686136610806</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0001288834027945995</v>
+        <v>0.001522470614872873</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.005767491180449724</v>
+        <v>0.001757722115144134</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.02904623560607433</v>
+        <v>0.00280216708779335</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.003621486946940422</v>
+        <v>0.006085726898163557</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0005302091594785452</v>
+        <v>0.004833282437175512</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.01949368603527546</v>
+        <v>0.000223958253627643</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.006010166835039854</v>
+        <v>0.00563802057877183</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.01247724052518606</v>
+        <v>0.004860934801399708</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.002425395883619785</v>
+        <v>0.003930038306862116</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.004202559590339661</v>
+        <v>0.0008367140544578433</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.01354233268648386</v>
+        <v>0.003571041859686375</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.02058509364724159</v>
+        <v>0.000116987299406901</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.006026759743690491</v>
+        <v>0.00207155873067677</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.003037064801901579</v>
+        <v>0.001596234855242074</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.006671169772744179</v>
+        <v>0.0009601297788321972</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.004646359942853451</v>
+        <v>0.000913260446395725</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.001780088874511421</v>
+        <v>0.001142277847975492</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.005102845374494791</v>
+        <v>0.0007252913201227784</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.001390375895425677</v>
+        <v>0.004555470310151577</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.01164554990828037</v>
+        <v>0.006980228237807751</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.003969406709074974</v>
+        <v>0.0008259770693257451</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.006447061896324158</v>
+        <v>0.009377509355545044</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.001125057460740209</v>
+        <v>0.01114512793719769</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.004481409210711718</v>
+        <v>0.000261485343798995</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.00230670697055757</v>
+        <v>0.004096312448382378</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.002414261223748326</v>
+        <v>0.002973274094983935</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.01532668992877007</v>
+        <v>0.004739210940897465</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.004417249467223883</v>
+        <v>0.00120483385398984</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.01032407768070698</v>
+        <v>0.00273717800155282</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.02047689631581306</v>
+        <v>0.0006001935107633471</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.004844435025006533</v>
+        <v>0.0008176038390956819</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.006854863837361336</v>
+        <v>6.05783388891723e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.006148326676338911</v>
+        <v>0.001785708474926651</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.003328799502924085</v>
+        <v>0.001359961228445172</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.001828812761232257</v>
+        <v>0.002500410191714764</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.006215800065547228</v>
+        <v>0.0002675238065421581</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.005216262768954039</v>
+        <v>0.005248290486633778</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.03375056758522987</v>
+        <v>0.0002485329168848693</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.007026524748653173</v>
+        <v>0.00256530474871397</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.001632425817660987</v>
+        <v>0.009311666712164879</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.006084630265831947</v>
+        <v>0.00305444304831326</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.003616568632423878</v>
+        <v>0.0009621167555451393</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.01130196079611778</v>
+        <v>0.0008596015395596623</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.007755313534289598</v>
+        <v>0.004154433496296406</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.003106897231191397</v>
+        <v>0.006203212775290012</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.001016966998577118</v>
+        <v>0.00484640896320343</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.01958471164107323</v>
+        <v>0.002017597900703549</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.002260172739624977</v>
+        <v>0.002935330383479595</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.005020609591156244</v>
+        <v>0.001235917676240206</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.004094633739441633</v>
+        <v>0.0007375174900516868</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.01026809122413397</v>
+        <v>0.00118799670599401</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.01005541905760765</v>
+        <v>0.00066963373683393</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.009238529950380325</v>
+        <v>0.001244450686499476</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0002480199618730694</v>
+        <v>0.00514364056289196</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.007343570236116648</v>
+        <v>0.0005753684090450406</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.005485580302774906</v>
+        <v>0.007664769887924194</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.01158040668815374</v>
+        <v>0.001230959547683597</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.005961051676422358</v>
+        <v>0.00424647843465209</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0008257227600552142</v>
+        <v>0.001252624671906233</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.007340259850025177</v>
+        <v>0.00230581290088594</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.006443126127123833</v>
+        <v>0.001436928287148476</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.002692672424018383</v>
+        <v>0.001826724386774004</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0007019754266366363</v>
+        <v>0.002666247077286243</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.006422637496143579</v>
+        <v>1.530888948764186e-05</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.00617023091763258</v>
+        <v>0.002459352603182197</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.02055463753640652</v>
+        <v>0.0007187866140156984</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.01371288113296032</v>
+        <v>0.0007604434504173696</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.002365635009482503</v>
+        <v>0.0007346588536165655</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.02576180920004845</v>
+        <v>0.0008788767736405134</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.000895893492270261</v>
+        <v>0.00439628679305315</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.005917914677411318</v>
+        <v>0.0004429516848176718</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.00397170428186655</v>
+        <v>0.0004766580241266638</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.001128480769693851</v>
+        <v>0.003550808411091566</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.002791149076074362</v>
+        <v>9.578769095242023e-05</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0006592229474335909</v>
+        <v>0.001297101844102144</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.001933917519636452</v>
+        <v>3.766556619666517e-05</v>
       </c>
       <c r="ES5" t="n">
-        <v>1.468299888074398e-05</v>
+        <v>0.0006663475651293993</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.01173494569957256</v>
+        <v>0.005961243994534016</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.004036403726786375</v>
+        <v>0.002193041145801544</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.006571255624294281</v>
+        <v>0.0003231737646274269</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.01181656681001186</v>
+        <v>0.001788654248230159</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.006059380248188972</v>
+        <v>0.001931926002725959</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.00840548612177372</v>
+        <v>0.003444107482209802</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.01922796294093132</v>
+        <v>0.000162524709594436</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.006719027180224657</v>
+        <v>0.002345095621421933</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.004547273740172386</v>
+        <v>0.0002010516764130443</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.003096002154052258</v>
+        <v>0.0004658084362745285</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.002541828434914351</v>
+        <v>0.0004326641792431474</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0003380868583917618</v>
+        <v>0.002439108677208424</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.006005002651363611</v>
+        <v>0.0003664569812826812</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0001640681730350479</v>
+        <v>0.002697378862649202</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.01338938158005476</v>
+        <v>0.002705651801079512</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.01949183829128742</v>
+        <v>0.001278046634979546</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.002084990264847875</v>
+        <v>2.933328505605459e-05</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01611169427633286</v>
+        <v>0.0005357553018257022</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.01032444648444653</v>
+        <v>0.006142041180282831</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.003530885558575392</v>
+        <v>0.0001372724073007703</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.003652237122878432</v>
+        <v>0.00301815546117723</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.003117878688499331</v>
+        <v>0.005656191147863865</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.007964616641402245</v>
+        <v>0.001338417874649167</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.02822003327310085</v>
+        <v>0.003645888296887279</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01007928512990475</v>
+        <v>0.003594424575567245</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.006457037292420864</v>
+        <v>0.001480945385992527</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.00728570856153965</v>
+        <v>0.002274092053994536</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.01581036299467087</v>
+        <v>0.002144434722140431</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.006521884817630053</v>
+        <v>7.475932943634689e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.008789886720478535</v>
+        <v>0.004400793462991714</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.00421498017385602</v>
+        <v>0.003508683992549777</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.003892107866704464</v>
+        <v>0.003768628230318427</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.008935520425438881</v>
+        <v>0.0005015239585191011</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.01042876392602921</v>
+        <v>0.003965776413679123</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.0007289377972483635</v>
+        <v>0.003078264882788062</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.0162873025983572</v>
+        <v>0.004025431349873543</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.00300691882148385</v>
+        <v>0.002733859233558178</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.003151148557662964</v>
+        <v>0.005450504366308451</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.007358555216342211</v>
+        <v>0.009752624668180943</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.002407941035926342</v>
+        <v>0.001951626967638731</v>
       </c>
     </row>
     <row r="6">
@@ -3849,1140 +3849,1140 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.016370296478271</v>
+        <v>0.001712451223284006</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3869262635707855</v>
+        <v>0.05551702529191971</v>
       </c>
       <c r="C7" t="n">
-        <v>1.403302907943726</v>
+        <v>0.003317997790873051</v>
       </c>
       <c r="D7" t="n">
-        <v>1.039677143096924</v>
+        <v>0.03561419993638992</v>
       </c>
       <c r="E7" t="n">
-        <v>1.195980310440063</v>
+        <v>0.008732371032238007</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03347322344779968</v>
+        <v>0.0004661672282963991</v>
       </c>
       <c r="G7" t="n">
-        <v>0.338085412979126</v>
+        <v>0.005130870267748833</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01782888919115067</v>
+        <v>0.008951134048402309</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4678662419319153</v>
+        <v>0.007986379787325859</v>
       </c>
       <c r="J7" t="n">
-        <v>2.164603471755981</v>
+        <v>0.002036442281678319</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03315235674381256</v>
+        <v>0.04515655338764191</v>
       </c>
       <c r="L7" t="n">
-        <v>1.628046154975891</v>
+        <v>0.00283030653372407</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9440770149230957</v>
+        <v>0.03208001330494881</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7367709279060364</v>
+        <v>0.01480635441839695</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02640151791274548</v>
+        <v>0.01045614387840033</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3163279592990875</v>
+        <v>0.0003362208371981978</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.365856945514679</v>
+        <v>0.005479482933878899</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7233849763870239</v>
+        <v>0.001253547379747033</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1397842168807983</v>
+        <v>0.001196829602122307</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2228083610534668</v>
+        <v>0.009715506806969643</v>
       </c>
       <c r="U7" t="n">
-        <v>0.25020432472229</v>
+        <v>0.004223612137138844</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1069018989801407</v>
+        <v>0.003020249772816896</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1187360808253288</v>
+        <v>0.003887590486556292</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04490155726671219</v>
+        <v>0.009910805150866508</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.05296338349580765</v>
+        <v>0.005130209028720856</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.06108982115983963</v>
+        <v>0.004015122540295124</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1539623439311981</v>
+        <v>0.006247510202229023</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2029533237218857</v>
+        <v>0.003134108148515224</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1078240871429443</v>
+        <v>0.008953223936259747</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1338045001029968</v>
+        <v>0.0003627233090810478</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3596513271331787</v>
+        <v>0.002081290585920215</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.06679309904575348</v>
+        <v>0.002294933423399925</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.07477778941392899</v>
+        <v>0.005474292673170567</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.1889486014842987</v>
+        <v>0.003492803778499365</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.07467566430568695</v>
+        <v>0.004653371404856443</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2062444984912872</v>
+        <v>0.000507187272887677</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.3743763864040375</v>
+        <v>0.001839381642639637</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.5022571086883545</v>
+        <v>0.003255453892052174</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.161485880613327</v>
+        <v>0.0009045008919201791</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.2305484116077423</v>
+        <v>0.002002241555601358</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01530621200799942</v>
+        <v>0.005844132974743843</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.08436131477355957</v>
+        <v>0.003704669419676065</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.005913376808166504</v>
+        <v>0.004928146488964558</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.3855592012405396</v>
+        <v>0.004217292182147503</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.05971882864832878</v>
+        <v>0.0001328879734501243</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.00849723815918</v>
+        <v>0.005120197776705027</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.5849441885948181</v>
+        <v>0.0343066081404686</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.036266565322876</v>
+        <v>0.003984069917351007</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.02843559347093105</v>
+        <v>0.006816944107413292</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.135948970913887</v>
+        <v>0.001668954384513199</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.3982180655002594</v>
+        <v>0.005200459156185389</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.5969347953796387</v>
+        <v>0.002386830747127533</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.206569641828537</v>
+        <v>0.009976780042052269</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1335744112730026</v>
+        <v>0.00258116377517581</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.137457937002182</v>
+        <v>0.00496617890894413</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.07184139639139175</v>
+        <v>0.009713750332593918</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.2249145656824112</v>
+        <v>0.01338137686252594</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.5984975695610046</v>
+        <v>0.008055582642555237</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.9616725444793701</v>
+        <v>0.01712665520608425</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.01055888086557388</v>
+        <v>0.001677429885603487</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.2923327088356018</v>
+        <v>0.001644183183088899</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.8882856965065002</v>
+        <v>0.007552317809313536</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.1498899757862091</v>
+        <v>6.645641406066716e-05</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.2338358759880066</v>
+        <v>0.007248692214488983</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.3912818729877472</v>
+        <v>0.003733418416231871</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.4167285263538361</v>
+        <v>0.002504392294213176</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03525789454579353</v>
+        <v>0.001316009787842631</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.2857701480388641</v>
+        <v>0.009139067493379116</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.5125389695167542</v>
+        <v>0.008512454107403755</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.00284208357334137</v>
+        <v>0.0001768093788996339</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.2739772796630859</v>
+        <v>0.006808165460824966</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.01576497592031956</v>
+        <v>0.002976805903017521</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.9180806875228882</v>
+        <v>0.003186005167663097</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.4094030857086182</v>
+        <v>0.01784870959818363</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.4011291265487671</v>
+        <v>0.001244400627911091</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.2502292990684509</v>
+        <v>0.003405467141419649</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.255346417427063</v>
+        <v>0.005701465997844934</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.3978126645088196</v>
+        <v>0.005100907757878304</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.1635090708732605</v>
+        <v>0.003026417223736644</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.2316794395446777</v>
+        <v>0.002875399310141802</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.01056697592139244</v>
+        <v>0.003099283669143915</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.4554475247859955</v>
+        <v>0.001596856745891273</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.5115540623664856</v>
+        <v>0.009809521026909351</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.2181025594472885</v>
+        <v>0.0026205915492028</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.1092915832996368</v>
+        <v>0.004199174698442221</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.2171021103858948</v>
+        <v>0.002847715280950069</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.02663245424628258</v>
+        <v>0.001159585197456181</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.07879762351512909</v>
+        <v>0.001683306763879955</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.009962320327758789</v>
+        <v>0.0006619010819122195</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.0646757110953331</v>
+        <v>0.001899397931993008</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0913933590054512</v>
+        <v>0.009589311666786671</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.2241591513156891</v>
+        <v>0.002770786872133613</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.08147576451301575</v>
+        <v>0.00121601449791342</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.07735255360603333</v>
+        <v>0.01066280249506235</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.3060237169265747</v>
+        <v>0.008268781937658787</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.2350372672080994</v>
+        <v>0.007352792657911777</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.5139069557189941</v>
+        <v>0.009199545718729496</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.4538711905479431</v>
+        <v>0.009394527412950993</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.1075514182448387</v>
+        <v>0.000865189591422677</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.390014111995697</v>
+        <v>0.001411815290339291</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.4979209005832672</v>
+        <v>0.008467532694339752</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.2092126309871674</v>
+        <v>0.004623329732567072</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.01547950319945812</v>
+        <v>0.006338294129818678</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.3695165514945984</v>
+        <v>0.003011378925293684</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.002931159920990467</v>
+        <v>0.002058736514300108</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.0963912159204483</v>
+        <v>0.002698918338865042</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.01461358834058046</v>
+        <v>0.0006929205264896154</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.07761308550834656</v>
+        <v>0.001180613879114389</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.1328394114971161</v>
+        <v>0.002481469651684165</v>
       </c>
       <c r="DF7" t="n">
-        <v>1.364266991615295</v>
+        <v>0.01253604888916016</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.5880604386329651</v>
+        <v>0.004430346190929413</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.2349113821983337</v>
+        <v>0.01028701849281788</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.07185675948858261</v>
+        <v>0.007641813717782497</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.00873151421546936</v>
+        <v>0.002431318396702409</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.2116465717554092</v>
+        <v>0.003650238970294595</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.3311882019042969</v>
+        <v>0.0007040286436676979</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.3140137493610382</v>
+        <v>0.003866566810756922</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.1906334012746811</v>
+        <v>0.0006286113057285547</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.4711231887340546</v>
+        <v>0.002445630030706525</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.1647778302431107</v>
+        <v>8.020499080885202e-05</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.06076660379767418</v>
+        <v>7.582918624393642e-05</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0466667003929615</v>
+        <v>0.006997537799179554</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.3365124464035034</v>
+        <v>0.004680521320551634</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.07629393041133881</v>
+        <v>0.0013164347037673</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.2216859310865402</v>
+        <v>0.004402083810418844</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.1703304350376129</v>
+        <v>0.003161631990224123</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.09831871092319489</v>
+        <v>1.792045077309012e-05</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.1162122488021851</v>
+        <v>0.001641349750570953</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.03380456566810608</v>
+        <v>0.006879191845655441</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.02483462542295456</v>
+        <v>0.003373092040419579</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.3461486995220184</v>
+        <v>0.001720996689982712</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.2764739394187927</v>
+        <v>0.0006298954249359667</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.04765234142541885</v>
+        <v>0.002675341442227364</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.2589752972126007</v>
+        <v>0.0007170896860770881</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.2742961347103119</v>
+        <v>5.397840868681669e-05</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.6262070536613464</v>
+        <v>0.001758645754307508</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.2672379016876221</v>
+        <v>0.006987854838371277</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.2282336503267288</v>
+        <v>0.004475468769669533</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.1276866495609283</v>
+        <v>0.003838947741314769</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.2317336648702621</v>
+        <v>0.004836389794945717</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.4703974425792694</v>
+        <v>0.003097476437687874</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.06646890938282013</v>
+        <v>0.001913813641294837</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0322510302066803</v>
+        <v>0.000892376177944243</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.1021201089024544</v>
+        <v>0.001814081449992955</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.07632582634687424</v>
+        <v>0.001308454433456063</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.5612563490867615</v>
+        <v>0.007498554419726133</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.2368023097515106</v>
+        <v>0.005605580750852823</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.08674442768096924</v>
+        <v>0.003838609205558896</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.4289151430130005</v>
+        <v>0.0003804285079240799</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.3696697354316711</v>
+        <v>0.005022427532821894</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.3577870428562164</v>
+        <v>0.005362623371183872</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.2673671543598175</v>
+        <v>0.00310002313926816</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.06330297142267227</v>
+        <v>0.001216457108967006</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.4386596381664276</v>
+        <v>0.0003402102447580546</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.4057088494300842</v>
+        <v>0.00915110670030117</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.2275543808937073</v>
+        <v>0.002107943408191204</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.06808239966630936</v>
+        <v>0.005465697962790728</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.3184122443199158</v>
+        <v>0.00339048239402473</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.1580511927604675</v>
+        <v>0.00303193717263639</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.09926575422286987</v>
+        <v>0.002352969255298376</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.1246332898736</v>
+        <v>0.0002301300410181284</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.06704075634479523</v>
+        <v>0.002192257437855005</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.3253178596496582</v>
+        <v>0.0005816424963995814</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.1278350353240967</v>
+        <v>0.00237417477183044</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.1756440103054047</v>
+        <v>0.005537247750908136</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.1462494730949402</v>
+        <v>0.003097842913120985</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.193613737821579</v>
+        <v>0.0005173486424610019</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.278683215379715</v>
+        <v>0.001727911760099232</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.1325788050889969</v>
+        <v>0.000156732217874378</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.2032761126756668</v>
+        <v>0.001049944199621677</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.2887653708457947</v>
+        <v>0.001024026423692703</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.1684688925743103</v>
+        <v>0.0004925382672809064</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.9926878213882446</v>
+        <v>0.004472453147172928</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.03729274868965149</v>
+        <v>0.007826166227459908</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.8355539441108704</v>
+        <v>0.001124299364164472</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.4145306050777435</v>
+        <v>0.001934168161824346</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.07655442506074905</v>
+        <v>0.002223839052021503</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.03102654218673706</v>
+        <v>0.00225441949442029</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.4575493931770325</v>
+        <v>0.0008033763151615858</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.06319542229175568</v>
+        <v>0.00637524202466011</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.01582987606525421</v>
+        <v>0.006072044838219881</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.4007360339164734</v>
+        <v>0.001911882311105728</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.0968623161315918</v>
+        <v>0.0008882062393240631</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.01181893423199654</v>
+        <v>0.001590659841895103</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.780915379524231</v>
+        <v>0.001473621232435107</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.2939484715461731</v>
+        <v>0.009638539515435696</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.03023913502693176</v>
+        <v>0.01650968939065933</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.2713252902030945</v>
+        <v>0.001281450851820409</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.1232203245162964</v>
+        <v>0.005286006722599268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004134751856327057</v>
+        <v>0.000770552025642246</v>
       </c>
       <c r="B8" t="n">
-        <v>0.008667781949043274</v>
+        <v>0.005968571174889803</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07932756841182709</v>
+        <v>0.0004607956798281521</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001768493209965527</v>
+        <v>0.003369116922840476</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0485917329788208</v>
+        <v>0.0008775252499617636</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02614363096654415</v>
+        <v>0.003974397666752338</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005946272984147072</v>
+        <v>0.0001784896594472229</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009726939722895622</v>
+        <v>0.001381566049531102</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02578742802143097</v>
+        <v>0.0002701282792259008</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002667701570317149</v>
+        <v>0.001729568350128829</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001896919682621956</v>
+        <v>0.004632550291717052</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07830880582332611</v>
+        <v>9.706163837108761e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001572055392898619</v>
+        <v>0.002971806796267629</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03165421262383461</v>
+        <v>0.0008494282374158502</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01427824608981609</v>
+        <v>0.004348634742200375</v>
       </c>
       <c r="P8" t="n">
-        <v>0.008734099566936493</v>
+        <v>0.0002292415883857757</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.008269419893622398</v>
+        <v>0.0002470288309268653</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0251748152077198</v>
+        <v>0.0002319524064660072</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003339052200317383</v>
+        <v>0.0004497130867093801</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01326077803969383</v>
+        <v>0.000851842574775219</v>
       </c>
       <c r="U8" t="n">
-        <v>0.005425818730145693</v>
+        <v>0.0003688946599140763</v>
       </c>
       <c r="V8" t="n">
-        <v>0.005471623502671719</v>
+        <v>0.000571717566344887</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00633913790807128</v>
+        <v>0.0002773168962448835</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0006874005193822086</v>
+        <v>0.000327616318827495</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.005873973947018385</v>
+        <v>0.0007527851848863065</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.004452516790479422</v>
+        <v>0.0004103438986930996</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.001714674755930901</v>
+        <v>0.000663748593069613</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.006934046745300293</v>
+        <v>4.665105370804667e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.003181782551109791</v>
+        <v>0.0006333448109216988</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01380886789411306</v>
+        <v>0.0001714517420623451</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.002253492828458548</v>
+        <v>1.498071651440114e-05</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.004254551138728857</v>
+        <v>0.0003075880231335759</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.410392572637647e-05</v>
+        <v>0.000142938835779205</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.001135437749326229</v>
+        <v>0.0005013957852497697</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0008296959567815065</v>
+        <v>0.0003812020877376199</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.008948331698775291</v>
+        <v>0.0002418496587779373</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.005061017815023661</v>
+        <v>0.0005611379747278988</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.004530269652605057</v>
+        <v>0.0009357969393022358</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.01601468771696091</v>
+        <v>0.000293208722723648</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.001284712692722678</v>
+        <v>0.0001711551449261606</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.004545631352812052</v>
+        <v>0.0003124606155324727</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0006967508234083652</v>
+        <v>0.0008001524256542325</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.001143838278949261</v>
+        <v>0.0001058935740729794</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.004974470008164644</v>
+        <v>0.0003496088902465999</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.001034700311720371</v>
+        <v>0.0008411086746491492</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.002356237731873989</v>
+        <v>0.0004574628255795687</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.004834047984331846</v>
+        <v>0.003819919191300869</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.03147546947002411</v>
+        <v>0.0003073289117310196</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.000243931106524542</v>
+        <v>0.0001001745768007822</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.009092114865779877</v>
+        <v>2.538460830692202e-05</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.004122534766793251</v>
+        <v>0.002250263700261712</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.002574001206085086</v>
+        <v>4.65750927105546e-05</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.001806024112738669</v>
+        <v>0.001218306599184871</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.00429005641490221</v>
+        <v>0.001257407711818814</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.003507652785629034</v>
+        <v>0.0009020776487886906</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0008407959248870611</v>
+        <v>0.001125702052377164</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.02226922102272511</v>
+        <v>0.001622372772544622</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.00157851492986083</v>
+        <v>0.001059138565324247</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.02305112592875957</v>
+        <v>0.001725678448565304</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.008576978929340839</v>
+        <v>0.001122015062719584</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0001082045491784811</v>
+        <v>0.000321967585477978</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.008185870945453644</v>
+        <v>0.001390494289807975</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.01929698698222637</v>
+        <v>8.019764209166169e-05</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.003196500707417727</v>
+        <v>8.766798418946564e-05</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0005036345683038235</v>
+        <v>0.0008521504933014512</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01893723756074905</v>
+        <v>0.0007782690227031708</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.000712480628862977</v>
+        <v>0.0007580576930195093</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.009137704968452454</v>
+        <v>7.452729187207296e-05</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.002123911632224917</v>
+        <v>4.141977842664346e-05</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.005800242535769939</v>
+        <v>0.0007800947641953826</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.006424509454518557</v>
+        <v>0.0001019738701870665</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.001230344059877098</v>
+        <v>7.59006361477077e-05</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.004707710351794958</v>
+        <v>0.000338937999913469</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.005477738566696644</v>
+        <v>0.00194436393212527</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.02427356876432896</v>
+        <v>0.0009020552970468998</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.002539103850722313</v>
+        <v>0.0006910524680279195</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.01620299182832241</v>
+        <v>0.000568013230804354</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.0112653486430645</v>
+        <v>0.0007537451456300914</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0001333086984232068</v>
+        <v>0.0005808557034470141</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.003412096295505762</v>
+        <v>0.0005904944846406579</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.001595262205228209</v>
+        <v>0.0009326154831796885</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.002035912591964006</v>
+        <v>3.998442116426304e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.005033382680267096</v>
+        <v>0.0009845332242548466</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.01462497562170029</v>
+        <v>0.0007867696112953126</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.001314098015427589</v>
+        <v>0.000578657491132617</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.008575789630413055</v>
+        <v>0.0004179140960332006</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.005243067163974047</v>
+        <v>0.0007026444654911757</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.002301875269040465</v>
+        <v>0.0003785433946177363</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0004752269596792758</v>
+        <v>0.0002376710763201118</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.003211413510143757</v>
+        <v>0.0005200766609050333</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.005449956282973289</v>
+        <v>0.0007940531941130757</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.01369581930339336</v>
+        <v>0.0001352726685581729</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0002389154396951199</v>
+        <v>0.0003401360008865595</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0006117329467087984</v>
+        <v>0.0007497876067645848</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.005771845113486052</v>
+        <v>0.0001129347219830379</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.01311572641134262</v>
+        <v>1.928478013724089e-06</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0009476001723669469</v>
+        <v>0.0007479171617887914</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.005202868022024632</v>
+        <v>0.0007319413125514984</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.00326185580343008</v>
+        <v>0.0001093438040697947</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.002638462698087096</v>
+        <v>5.553982191486284e-05</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.004824500065296888</v>
+        <v>0.0008893150370568037</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.0155339427292347</v>
+        <v>0.0007562258397229016</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.002237383974716067</v>
+        <v>0.0008598623680882156</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.01170967984944582</v>
+        <v>0.00037290298496373</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.005101308692246675</v>
+        <v>0.0007778280414640903</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.002511761384084821</v>
+        <v>0.0003751181066036224</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.001268337480723858</v>
+        <v>0.0006055086269043386</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.003769541392102838</v>
+        <v>0.0003496996941976249</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.001071637729182839</v>
+        <v>0.0002828605065587908</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.008625183254480362</v>
+        <v>0.001021860516630113</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.008417163044214249</v>
+        <v>0.0002301351923961192</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.00409374013543129</v>
+        <v>0.002160317031666636</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.004919271916151047</v>
+        <v>0.0003066898207180202</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.001930270809680223</v>
+        <v>0.0001768382207956165</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.006008924916386604</v>
+        <v>0.0008513982756994665</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.005423308350145817</v>
+        <v>0.0009089575614780188</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.002525170100852847</v>
+        <v>0.0003127915551885962</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.001376668689772487</v>
+        <v>3.139792897854932e-05</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.00781575869768858</v>
+        <v>0.0001711990917101502</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.002778490306809545</v>
+        <v>0.0005227990914136171</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.004649177193641663</v>
+        <v>0.0005528955371119082</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.001365113304927945</v>
+        <v>0.0003038592403754592</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.002940671984106302</v>
+        <v>4.962440289091319e-05</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0009694484178908169</v>
+        <v>0.0002676191506907344</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.002650466281920671</v>
+        <v>4.387758963275701e-05</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0002777869813144207</v>
+        <v>0.0008633123361505568</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.002081952523440123</v>
+        <v>0.0001768039655871689</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0009370552725158632</v>
+        <v>0.0004491941654123366</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.009248918853700161</v>
+        <v>0.0009313039481639862</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.006545145064592361</v>
+        <v>5.584931932389736e-05</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.007758176419883966</v>
+        <v>0.0002582033048383892</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.001881378935649991</v>
+        <v>0.0004186265578027815</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.002228761557489634</v>
+        <v>4.004803486168385e-06</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.0004624712455552071</v>
+        <v>0.0002688472741283476</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.00656423345208168</v>
+        <v>1.317714486503974e-05</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.002981208963319659</v>
+        <v>0.0004141679673921317</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.007531557232141495</v>
+        <v>0.0006314841448329389</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.01768842525780201</v>
+        <v>0.0005620851297862828</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.003088700119405985</v>
+        <v>8.132374205160886e-05</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.008451427333056927</v>
+        <v>7.864668441470712e-05</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.01502196118235588</v>
+        <v>0.00059619324747473</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.002154618036001921</v>
+        <v>0.0006310882745310664</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.004337633028626442</v>
+        <v>4.217106470605358e-05</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.003228642279282212</v>
+        <v>0.0001417774619767442</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.003488469868898392</v>
+        <v>0.0001348709047306329</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.005296504590660334</v>
+        <v>0.0003522846382111311</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.009823201224207878</v>
+        <v>0.0008480310789309442</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.004726801067590714</v>
+        <v>0.0004880840715486556</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.005095153581351042</v>
+        <v>0.0005458757514134049</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.001650398131459951</v>
+        <v>0.0006754539208486676</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0057908003218472</v>
+        <v>0.0007603303529322147</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0005536910030059516</v>
+        <v>0.001021303585730493</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.006345617119222879</v>
+        <v>2.411838067928329e-05</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.004337250255048275</v>
+        <v>9.704244439490139e-05</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.003430992132052779</v>
+        <v>0.0008353387238457799</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01561039686203003</v>
+        <v>0.0006068057264201343</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.0005875545321032405</v>
+        <v>0.0006930450326763093</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.01004472002387047</v>
+        <v>0.0004475250898394734</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.002116199117153883</v>
+        <v>0.0006286977441050112</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.001840978744439781</v>
+        <v>0.0005982930306345224</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.002371472306549549</v>
+        <v>0.0003449803916737437</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.003802465507760644</v>
+        <v>0.0005770737770944834</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.003128295531496406</v>
+        <v>5.87866670684889e-05</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.006990731228142977</v>
+        <v>0.0004573753103613853</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.009527693502604961</v>
+        <v>0.0007707474869675934</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.01619994267821312</v>
+        <v>0.0009020683355629444</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.01135299168527126</v>
+        <v>0.0002935418742708862</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0009744570124894381</v>
+        <v>0.000569615513086319</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0002040196559391916</v>
+        <v>0.0003509268572088331</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.001256151357665658</v>
+        <v>0.0002410257002338767</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.002757099689915776</v>
+        <v>0.0004382739425636828</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0004422999918460846</v>
+        <v>0.0002819264191202819</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.02600533701479435</v>
+        <v>0.001007565879262984</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.01270924229174852</v>
+        <v>0.0005233365227468312</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.00358276953920722</v>
+        <v>0.001126919407397509</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.009841994382441044</v>
+        <v>0.001097255502827466</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.006705228704959154</v>
+        <v>0.0004352641990408301</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0004459273186512291</v>
+        <v>0.0004989660228602588</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.002693515038117766</v>
+        <v>0.0003849574131891131</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.003041592892259359</v>
+        <v>7.011022535152733e-05</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.002670531859621406</v>
+        <v>0.001150390016846359</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.007937963120639324</v>
+        <v>4.74595399282407e-05</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.009128056466579437</v>
+        <v>0.0001501276419730857</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.001744255423545837</v>
+        <v>6.375758675858378e-05</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.01236339379101992</v>
+        <v>0.0002238859160570428</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.008344288915395737</v>
+        <v>0.0005713164573535323</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.001240757876075804</v>
+        <v>0.002858526539057493</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.005509668961167336</v>
+        <v>0.0002044062275672331</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.002353553660213947</v>
+        <v>0.0004865959053859115</v>
       </c>
     </row>
     <row r="9">
@@ -5556,2278 +5556,2278 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001228065812028944</v>
+        <v>0.6638014316558838</v>
       </c>
       <c r="B10" t="n">
-        <v>0.000357826123945415</v>
+        <v>1.2353355884552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004503943957388401</v>
+        <v>0.131486102938652</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007005770457908511</v>
+        <v>0.2079101353883743</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00364470318891108</v>
+        <v>0.2985281944274902</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001449734787456691</v>
+        <v>0.2510347068309784</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001469141454435885</v>
+        <v>0.1080858558416367</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001231312984600663</v>
+        <v>1.486358761787415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001443049986846745</v>
+        <v>0.2078614085912704</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006160987541079521</v>
+        <v>0.5545161366462708</v>
       </c>
       <c r="K10" t="n">
-        <v>9.07153298612684e-05</v>
+        <v>0.8470445275306702</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005190042313188314</v>
+        <v>0.05553857982158661</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0007370970561169088</v>
+        <v>0.09620147943496704</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002441376680508256</v>
+        <v>0.5094627737998962</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0002210155653301626</v>
+        <v>0.2175142168998718</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001644661067984998</v>
+        <v>0.01761463284492493</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001012577209621668</v>
+        <v>1.711702227592468</v>
       </c>
       <c r="R10" t="n">
-        <v>0.00065084412926808</v>
+        <v>0.440434068441391</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001033313223160803</v>
+        <v>0.1572821885347366</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0002109938650391996</v>
+        <v>0.3289788961410522</v>
       </c>
       <c r="U10" t="n">
-        <v>4.749163781525567e-05</v>
+        <v>0.0337803065776825</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0002884997811634094</v>
+        <v>0.1415750682353973</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0004037281614728272</v>
+        <v>0.3380496203899384</v>
       </c>
       <c r="X10" t="n">
-        <v>2.69811789621599e-05</v>
+        <v>0.3104378879070282</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0003706151910591871</v>
+        <v>0.03666971251368523</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0005253457347862422</v>
+        <v>0.2314796447753906</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.000815936888102442</v>
+        <v>0.04269574582576752</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0005593504174612463</v>
+        <v>0.06493633240461349</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0005143234739080071</v>
+        <v>0.4368309676647186</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0005427456344477832</v>
+        <v>0.0558655709028244</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0005762631772086024</v>
+        <v>0.1849061846733093</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.002368511166424e-05</v>
+        <v>0.2306345254182816</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0001868215040303767</v>
+        <v>0.02106809243559837</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0003335427318233997</v>
+        <v>0.1186276525259018</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0006709935260005295</v>
+        <v>0.4300580620765686</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0002640204038470984</v>
+        <v>0.05333126336336136</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0001813377311918885</v>
+        <v>0.3881820440292358</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0007423087954521179</v>
+        <v>0.07386790215969086</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0007981478120200336</v>
+        <v>0.03234489262104034</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0001023943987092935</v>
+        <v>0.007018239237368107</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0009396944078616798</v>
+        <v>0.0499989315867424</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0003609744308050722</v>
+        <v>0.02937968634068966</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0002627803478389978</v>
+        <v>0.1326632797718048</v>
       </c>
       <c r="AR10" t="n">
-        <v>8.774830348556861e-05</v>
+        <v>0.2419698536396027</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0006953994161449373</v>
+        <v>0.1424376964569092</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0008639762527309358</v>
+        <v>0.2551524937152863</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.001553173759020865</v>
+        <v>1.503349542617798</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.001665136776864529</v>
+        <v>0.1344801187515259</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.000625556509476155</v>
+        <v>0.4541931748390198</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.00120855076238513</v>
+        <v>0.5768639445304871</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0008364573586732149</v>
+        <v>0.09108079224824905</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0003522495680954307</v>
+        <v>0.3138200640678406</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.002820324851199985</v>
+        <v>0.09312114119529724</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.00172170577570796</v>
+        <v>0.1467163860797882</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.001131758792325854</v>
+        <v>0.3602942228317261</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.001002556178718805</v>
+        <v>0.2222508639097214</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0009356839582324028</v>
+        <v>0.4930488169193268</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.0003899154835380614</v>
+        <v>0.4205927550792694</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.002668591449037194</v>
+        <v>0.5764857530593872</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.001017385977320373</v>
+        <v>0.04356098175048828</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0003980047767981887</v>
+        <v>0.318427175283432</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.001621608505956829</v>
+        <v>0.8644375801086426</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0009481508168391883</v>
+        <v>0.198231965303421</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0001294843968935311</v>
+        <v>0.02568998374044895</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.001445270958356559</v>
+        <v>0.942331075668335</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0008152974187396467</v>
+        <v>0.1183120906352997</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0008212469983845949</v>
+        <v>0.845369815826416</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0004694623057730496</v>
+        <v>1.031805396080017</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.987128052860498e-05</v>
+        <v>0.2344644218683243</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.0001077915803762153</v>
+        <v>0.02442243695259094</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0001049674465321004</v>
+        <v>0.3962807953357697</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0002937408280558884</v>
+        <v>0.1065912470221519</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.00058353366330266</v>
+        <v>0.1126942485570908</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0007079614442773163</v>
+        <v>0.6429307460784912</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.00177917827386409</v>
+        <v>0.2330402880907059</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.525443803984672e-05</v>
+        <v>0.1089700683951378</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0004759848525281996</v>
+        <v>0.4119422733783722</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0003945303906220943</v>
+        <v>0.0928306058049202</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0002780715585686266</v>
+        <v>0.5128641128540039</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.001040966948494315</v>
+        <v>0.07915857434272766</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.0005517297540791333</v>
+        <v>0.1660268902778625</v>
       </c>
       <c r="CD10" t="n">
-        <v>8.877059735823423e-05</v>
+        <v>0.05134830623865128</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0008656352874822915</v>
+        <v>0.2752035558223724</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0007014634902589023</v>
+        <v>0.1233749911189079</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0004693749942816794</v>
+        <v>0.06314902007579803</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0006398439290933311</v>
+        <v>0.0405261367559433</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.0002607687492854893</v>
+        <v>0.2197877913713455</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0002021352993324399</v>
+        <v>0.01312040537595749</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0004084531683474779</v>
+        <v>0.3045412600040436</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0001169644674519077</v>
+        <v>0.07084982097148895</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0006063160835765302</v>
+        <v>0.6791375279426575</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.0008348512928932905</v>
+        <v>0.7862738370895386</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0002339635248063132</v>
+        <v>0.05424945801496506</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0004474049201235175</v>
+        <v>0.3424024283885956</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0008808851707726717</v>
+        <v>0.7879053950309753</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0004188917228020728</v>
+        <v>0.06060314923524857</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.001058762311004102</v>
+        <v>0.04264715313911438</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.00135316199157387</v>
+        <v>0.2914796471595764</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0002201730821980163</v>
+        <v>0.06918765604496002</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0001965762494364753</v>
+        <v>0.01343058608472347</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.001005148980766535</v>
+        <v>0.1843138188123703</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.0008774703601375222</v>
+        <v>0.1571419239044189</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.000351324153598398</v>
+        <v>0.2089582979679108</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.000756969559006393</v>
+        <v>0.00968928262591362</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0004307596536818892</v>
+        <v>0.2031300812959671</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.000107485509943217</v>
+        <v>0.04875680059194565</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.0002348741109017283</v>
+        <v>0.1688516139984131</v>
       </c>
       <c r="DD10" t="n">
-        <v>8.707973029231653e-05</v>
+        <v>0.008813595399260521</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0004697310796473175</v>
+        <v>0.6822954416275024</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.001002613455057144</v>
+        <v>0.9643968939781189</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0001668252662057057</v>
+        <v>0.05634043738245964</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.001179767539724708</v>
+        <v>0.6012055277824402</v>
       </c>
       <c r="DI10" t="n">
-        <v>3.330741674290039e-05</v>
+        <v>0.04603531956672668</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.001263694022782147</v>
+        <v>0.004166989121586084</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0002719258482102305</v>
+        <v>0.4092905819416046</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0004178591480012983</v>
+        <v>0.04836790636181831</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0004623873101081699</v>
+        <v>0.1004059612751007</v>
       </c>
       <c r="DN10" t="n">
-        <v>8.519251423422247e-06</v>
+        <v>0.3762313425540924</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.0001123525144066662</v>
+        <v>0.229171097278595</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0003460830193944275</v>
+        <v>0.207751676440239</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0003812041250057518</v>
+        <v>0.1293793916702271</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0002147631021216512</v>
+        <v>0.1089334115386009</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0007414451683871448</v>
+        <v>0.07623948901891708</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.0001103102404158562</v>
+        <v>0.1324042528867722</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.000622279942035675</v>
+        <v>0.1434755772352219</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.000781834649387747</v>
+        <v>0.1416294127702713</v>
       </c>
       <c r="DW10" t="n">
-        <v>4.746377817355096e-05</v>
+        <v>0.1781472563743591</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0001462356303818524</v>
+        <v>0.01867571845650673</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0002572021912783384</v>
+        <v>0.1019336730241776</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.001247579231858253</v>
+        <v>0.4254487454891205</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0003499916347209364</v>
+        <v>0.101734034717083</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.0009049976943060756</v>
+        <v>0.1688350290060043</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.000314309261739254</v>
+        <v>0.1740557551383972</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0006646519177593291</v>
+        <v>0.2701775431632996</v>
       </c>
       <c r="EE10" t="n">
-        <v>8.219931623898447e-05</v>
+        <v>0.1430870741605759</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0003459644503891468</v>
+        <v>0.1427442729473114</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0002074319636449218</v>
+        <v>0.04013865441083908</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.001248899032361805</v>
+        <v>0.02556898817420006</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0005467915907502174</v>
+        <v>0.4102564454078674</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.001260290155187249</v>
+        <v>0.04817326739430428</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.001142046181485057</v>
+        <v>0.1377459913492203</v>
       </c>
       <c r="EL10" t="n">
-        <v>9.757316729519516e-05</v>
+        <v>0.0585709847509861</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0001068653218680993</v>
+        <v>0.2946288585662842</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.000725752383004874</v>
+        <v>0.06204751878976822</v>
       </c>
       <c r="EO10" t="n">
-        <v>8.493441418977454e-05</v>
+        <v>0.2755288481712341</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.001993958372622728</v>
+        <v>0.0816301628947258</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.0004201862611807883</v>
+        <v>0.1720314472913742</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0001731441006995738</v>
+        <v>0.001258097589015961</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.0007978679495863616</v>
+        <v>0.2482740879058838</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0003174720914103091</v>
+        <v>0.1549697369337082</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.0007110169972293079</v>
+        <v>0.1781202852725983</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.001052085892297328</v>
+        <v>0.02250642701983452</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0003229094436392188</v>
+        <v>0.1067533642053604</v>
       </c>
       <c r="EX10" t="n">
-        <v>9.379492257721722e-05</v>
+        <v>0.02998455427587032</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.0008300969493575394</v>
+        <v>0.1681115031242371</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0007523685926571488</v>
+        <v>0.0836583748459816</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0003712003526743501</v>
+        <v>0.1104254126548767</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0008980536949820817</v>
+        <v>0.04518879950046539</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.0002948771580122411</v>
+        <v>0.2156047821044922</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0001694993261480704</v>
+        <v>0.1011290475726128</v>
       </c>
       <c r="FE10" t="n">
-        <v>2.206302451668307e-05</v>
+        <v>0.3066435158252716</v>
       </c>
       <c r="FF10" t="n">
-        <v>8.967810572357848e-05</v>
+        <v>0.04769366979598999</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0001426133530912921</v>
+        <v>0.2520991563796997</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.0001861397468019277</v>
+        <v>0.07199016213417053</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.0007181201362982392</v>
+        <v>0.1351915299892426</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0007434162544086576</v>
+        <v>0.1257397830486298</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.0005514337681233883</v>
+        <v>0.28151535987854</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.0008376967743970454</v>
+        <v>0.01195625960826874</v>
       </c>
       <c r="FM10" t="n">
-        <v>8.599260763730854e-05</v>
+        <v>0.1135232448577881</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0001011989006656222</v>
+        <v>0.02116311155259609</v>
       </c>
       <c r="FO10" t="n">
-        <v>6.312206096481532e-05</v>
+        <v>0.08935742825269699</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.0005405180272646248</v>
+        <v>0.2317067533731461</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.001939143985509872</v>
+        <v>0.111503429710865</v>
       </c>
       <c r="FR10" t="n">
-        <v>9.529228555038571e-05</v>
+        <v>0.203255295753479</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.000940442958381027</v>
+        <v>0.6663557887077332</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0005617366405203938</v>
+        <v>0.3714026808738708</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0001398041349602863</v>
+        <v>0.0947117805480957</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.000667547108605504</v>
+        <v>0.3654701411724091</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.00026988290483132</v>
+        <v>0.1735096275806427</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0004616319201886654</v>
+        <v>0.131647065281868</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0004685853491537273</v>
+        <v>0.226314976811409</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.001511796726845205</v>
+        <v>0.4960937798023224</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0005069298204034567</v>
+        <v>0.06160632520914078</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.002030509524047375</v>
+        <v>0.3634620010852814</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0003119065368082374</v>
+        <v>0.2613537609577179</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0002333337033633143</v>
+        <v>0.1324509233236313</v>
       </c>
       <c r="GE10" t="n">
-        <v>2.567115006968379e-05</v>
+        <v>0.2019974887371063</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.0006138503085821867</v>
+        <v>0.403831958770752</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0004295561229810119</v>
+        <v>0.1235048323869705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.06823746114969254</v>
+        <v>0.1073690503835678</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1669382303953171</v>
+        <v>0.346339613199234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1810410469770432</v>
+        <v>0.02318480052053928</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06235136091709137</v>
+        <v>0.009361162781715393</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0194794163107872</v>
+        <v>0.009961176663637161</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03191769868135452</v>
+        <v>0.1010008007287979</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004331042990088463</v>
+        <v>0.06907206773757935</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004896464291960001</v>
+        <v>0.08202123641967773</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0788932740688324</v>
+        <v>0.04637730866670609</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07982353866100311</v>
+        <v>0.08386261761188507</v>
       </c>
       <c r="K11" t="n">
-        <v>0.142494723200798</v>
+        <v>0.2731560468673706</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2004232108592987</v>
+        <v>0.02547243610024452</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01115361414849758</v>
+        <v>0.08625693619251251</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02711589634418488</v>
+        <v>0.2250356078147888</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02489539422094822</v>
+        <v>0.1682782024145126</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02817673049867153</v>
+        <v>0.1367961466312408</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01217078976333141</v>
+        <v>0.273462176322937</v>
       </c>
       <c r="R11" t="n">
-        <v>0.09200036525726318</v>
+        <v>0.06488793343305588</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002095684409141541</v>
+        <v>0.03517706692218781</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06035502254962921</v>
+        <v>0.196549579501152</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04744268208742142</v>
+        <v>0.05040950700640678</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01388985197991133</v>
+        <v>0.02288753539323807</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06641966849565506</v>
+        <v>0.1652916967868805</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03070474043488503</v>
+        <v>0.08143265545368195</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0113437008112669</v>
+        <v>0.03488921374082565</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01368335448205471</v>
+        <v>0.02231293730437756</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.008450891822576523</v>
+        <v>0.02939659543335438</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01232102699577808</v>
+        <v>0.001175613608211279</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.09474344551563263</v>
+        <v>0.09467174857854843</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01335818227380514</v>
+        <v>0.04747354984283447</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.03984875604510307</v>
+        <v>0.1315018385648727</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.01281178928911686</v>
+        <v>0.08476722985506058</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01181704457849264</v>
+        <v>0.1410119533538818</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01817157492041588</v>
+        <v>0.1175428032875061</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.03499118983745575</v>
+        <v>0.0574151948094368</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.06752243638038635</v>
+        <v>0.000393726397305727</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.01190310530364513</v>
+        <v>0.1065556481480598</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.03366991877555847</v>
+        <v>0.09353291988372803</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.03769273683428764</v>
+        <v>0.02986415103077888</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.00159223610535264</v>
+        <v>0.06006063520908356</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.771987631917e-05</v>
+        <v>0.05550927296280861</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.003274335758760571</v>
+        <v>0.1021693572402</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.003162682522088289</v>
+        <v>0.1058583855628967</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.02920220047235489</v>
+        <v>0.09215715527534485</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.01828437112271786</v>
+        <v>0.03552202507853508</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.05292084068059921</v>
+        <v>0.1924834549427032</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.08328376710414886</v>
+        <v>0.3739234805107117</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.05295866727828979</v>
+        <v>0.04587886109948158</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.01789464801549911</v>
+        <v>0.04352736100554466</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.06004724651575089</v>
+        <v>0.2893241047859192</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.02691082656383514</v>
+        <v>0.002582930028438568</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.03413769602775574</v>
+        <v>0.01001347042620182</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0214429572224617</v>
+        <v>0.1018032133579254</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.01429393701255322</v>
+        <v>0.08290362358093262</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.02019369043409824</v>
+        <v>0.1070578768849373</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.05592688918113708</v>
+        <v>0.02411236986517906</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.04689580947160721</v>
+        <v>0.04458180814981461</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.03472863510251045</v>
+        <v>0.03671650588512421</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1025681793689728</v>
+        <v>0.2135571986436844</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.04039552062749863</v>
+        <v>0.06660464406013489</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.008196916431188583</v>
+        <v>0.06741639971733093</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.02372448891401291</v>
+        <v>0.2027902454137802</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.002809595316648483</v>
+        <v>0.07386676222085953</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.02594339475035667</v>
+        <v>0.03009234368801117</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.02739306166768074</v>
+        <v>0.1287059932947159</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.04292177781462669</v>
+        <v>0.01752747595310211</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02126014232635498</v>
+        <v>0.2163684964179993</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.002439239528030157</v>
+        <v>0.34635129570961</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0523671954870224</v>
+        <v>0.08544362336397171</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.01034468039870262</v>
+        <v>0.01165451947599649</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.00835274625569582</v>
+        <v>0.176150381565094</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.008242163807153702</v>
+        <v>0.0999637097120285</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.05240395665168762</v>
+        <v>0.09473149478435516</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.05864261090755463</v>
+        <v>0.2007409781217575</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.07474434375762939</v>
+        <v>0.007076487876474857</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.01507572550326586</v>
+        <v>0.05398904904723167</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.01088797114789486</v>
+        <v>0.09734389930963516</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.03123194165527821</v>
+        <v>0.02998557314276695</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.007096199784427881</v>
+        <v>0.1260780990123749</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.02710649743676186</v>
+        <v>0.04988543689250946</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.01397009938955307</v>
+        <v>0.006856180727481842</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0116917509585619</v>
+        <v>0.003105447627604008</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03082305006682873</v>
+        <v>0.07095640152692795</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.02690441533923149</v>
+        <v>0.01827999949455261</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.00883103534579277</v>
+        <v>0.03323822468519211</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.009714396670460701</v>
+        <v>0.02459714561700821</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.004643232561647892</v>
+        <v>0.01300865784287453</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.01067343354225159</v>
+        <v>0.00434052012860775</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.004127428401261568</v>
+        <v>0.001534496899694204</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.01013831235468388</v>
+        <v>0.01332314312458038</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.007737748324871063</v>
+        <v>0.1778358966112137</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.007527042180299759</v>
+        <v>0.1245193481445312</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.03181791305541992</v>
+        <v>0.01516254153102636</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.008539377711713314</v>
+        <v>0.0594259649515152</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.05894942581653595</v>
+        <v>0.2779352068901062</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.007348097395151854</v>
+        <v>0.0193987675011158</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.02535722404718399</v>
+        <v>0.09339445829391479</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.03513354808092117</v>
+        <v>0.02432887628674507</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.04296544939279556</v>
+        <v>0.06026003882288933</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.009244347922503948</v>
+        <v>0.01542760245501995</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0322246178984642</v>
+        <v>0.07769418507814407</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.02990824729204178</v>
+        <v>0.01414863578975201</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.004323729313910007</v>
+        <v>0.05546914041042328</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01499505899846554</v>
+        <v>0.009231838397681713</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.005817046388983727</v>
+        <v>0.02541167661547661</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.01347285136580467</v>
+        <v>0.02153138630092144</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.008896053768694401</v>
+        <v>0.0257538054138422</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.01299629267305136</v>
+        <v>0.01026903092861176</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.01210121531039476</v>
+        <v>0.2201390266418457</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.06794831901788712</v>
+        <v>0.4430433213710785</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.01173847541213036</v>
+        <v>0.0186298806220293</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.07441471517086029</v>
+        <v>0.02965892851352692</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.008868454024195671</v>
+        <v>0.02999074012041092</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.01783168129622936</v>
+        <v>0.1799720227718353</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.03833509236574173</v>
+        <v>0.1328354626893997</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0207628570497036</v>
+        <v>0.05654424801468849</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.006132553331553936</v>
+        <v>0.1317484080791473</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.03900781273841858</v>
+        <v>0.09238102287054062</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.0357302650809288</v>
+        <v>0.1426840424537659</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.02441017888486385</v>
+        <v>0.02400673553347588</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.01028340961784124</v>
+        <v>0.09991795569658279</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.005607589613646269</v>
+        <v>0.07182853668928146</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.001080851070582867</v>
+        <v>0.001239093020558357</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.009188058786094189</v>
+        <v>0.09704578667879105</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.02372572384774685</v>
+        <v>0.01949787139892578</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.02178071439266205</v>
+        <v>0.06733224540948868</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.01121758949011564</v>
+        <v>0.04632854461669922</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.03519934415817261</v>
+        <v>0.07725917547941208</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.003947660326957703</v>
+        <v>0.06600959599018097</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.007812334690243006</v>
+        <v>0.1268309354782104</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.01755626127123833</v>
+        <v>0.06281750649213791</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.02004469372332096</v>
+        <v>0.04614744707942009</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.007350401021540165</v>
+        <v>0.08221111446619034</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.01780113019049168</v>
+        <v>0.05367451533675194</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.03549151122570038</v>
+        <v>0.06244016066193581</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.01634726300835609</v>
+        <v>0.07349630445241928</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.003040071576833725</v>
+        <v>0.1197163164615631</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.04049641638994217</v>
+        <v>0.01581370644271374</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.02003915794193745</v>
+        <v>0.05349035561084747</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.008580291643738747</v>
+        <v>0.030933678150177</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.01297852862626314</v>
+        <v>0.04570693895220757</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.007985278964042664</v>
+        <v>0.0519094280898571</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.008112252689898014</v>
+        <v>0.02660638839006424</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.0005458302330225706</v>
+        <v>0.01976381428539753</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.01658410392701626</v>
+        <v>0.05085606873035431</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.05685769021511078</v>
+        <v>0.003630812279880047</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.02605118416249752</v>
+        <v>0.003642316441982985</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.02569756656885147</v>
+        <v>0.009702246636152267</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0497974194586277</v>
+        <v>0.01841798610985279</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.01384405046701431</v>
+        <v>0.04151736572384834</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.003905122634023428</v>
+        <v>0.03317861258983612</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.01611308194696903</v>
+        <v>0.03374951705336571</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.02148404344916344</v>
+        <v>0.04733726009726524</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.02133344300091267</v>
+        <v>0.008746309205889702</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.01968084089457989</v>
+        <v>0.0611720085144043</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.02971027791500092</v>
+        <v>0.007847069762647152</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.004094664938747883</v>
+        <v>0.03338529914617538</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01525169983506203</v>
+        <v>0.03802549466490746</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.004052933305501938</v>
+        <v>0.0124257942661643</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.01111408323049545</v>
+        <v>0.005152331665158272</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.001634286949411035</v>
+        <v>0.02248391695320606</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.01175269577652216</v>
+        <v>0.001684804330579937</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0008292831480503082</v>
+        <v>0.1277180016040802</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.01252236310392618</v>
+        <v>0.06589893996715546</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.05127956718206406</v>
+        <v>0.02827341482043266</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.009893372654914856</v>
+        <v>0.1085199862718582</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.0182733628898859</v>
+        <v>0.03536390513181686</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.02833437360823154</v>
+        <v>0.0117553872987628</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.008463424630463123</v>
+        <v>0.00466054305434227</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.007969229482114315</v>
+        <v>0.04934792220592499</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.005589712411165237</v>
+        <v>0.04594143852591515</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.03605129942297935</v>
+        <v>0.04356934502720833</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.04669821262359619</v>
+        <v>0.05265555530786514</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.02171273902058601</v>
+        <v>0.06109566986560822</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.07433070242404938</v>
+        <v>0.1876389384269714</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.04040912166237831</v>
+        <v>0.1428343504667282</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.005895006470382214</v>
+        <v>0.01631923019886017</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.003872730303555727</v>
+        <v>0.02339364215731621</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.0002155254187528044</v>
+        <v>0.02682185173034668</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.08477701246738434</v>
+        <v>0.06171915307641029</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.007130392361432314</v>
+        <v>0.01836609281599522</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.008071543648838997</v>
+        <v>0.1492711454629898</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.03987160325050354</v>
+        <v>0.05328135192394257</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.04839001595973969</v>
+        <v>0.2267229110002518</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.05480344593524933</v>
+        <v>0.2676382958889008</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.006784703582525253</v>
+        <v>0.07783018797636032</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.00886303186416626</v>
+        <v>0.1394986063241959</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.008361543528735638</v>
+        <v>0.2408899068832397</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.01205963362008333</v>
+        <v>0.02924237214028835</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0007883841171860695</v>
+        <v>0.004335778765380383</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04072347655892372</v>
+        <v>0.1669000834226608</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1074632406234741</v>
+        <v>0.01519213151186705</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1117835938930511</v>
+        <v>0.04427432268857956</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03366696462035179</v>
+        <v>0.03968667611479759</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03273708000779152</v>
+        <v>0.04145682975649834</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008540842682123184</v>
+        <v>0.07402537763118744</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01360676344484091</v>
+        <v>0.005588884465396404</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02340305969119072</v>
+        <v>0.01241823099553585</v>
       </c>
       <c r="J12" t="n">
-        <v>0.006848086602985859</v>
+        <v>0.02033091336488724</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04045543447136879</v>
+        <v>0.1193558648228645</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1023126319050789</v>
+        <v>0.006157295778393745</v>
       </c>
       <c r="M12" t="n">
-        <v>0.103583425283432</v>
+        <v>0.08217861503362656</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01581300422549248</v>
+        <v>0.04932829737663269</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005428083706647158</v>
+        <v>0.05120019987225533</v>
       </c>
       <c r="P12" t="n">
-        <v>0.009878508746623993</v>
+        <v>0.06643769890069962</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02858823910355568</v>
+        <v>0.02543927915394306</v>
       </c>
       <c r="R12" t="n">
-        <v>0.04346593096852303</v>
+        <v>0.005960079375654459</v>
       </c>
       <c r="S12" t="n">
-        <v>0.006868163123726845</v>
+        <v>0.02244327403604984</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01198798790574074</v>
+        <v>0.04580749943852425</v>
       </c>
       <c r="U12" t="n">
-        <v>0.007926223799586296</v>
+        <v>0.002266950439661741</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01485198363661766</v>
+        <v>0.001063859090209007</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05759632587432861</v>
+        <v>0.04235599935054779</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0002286562521476299</v>
+        <v>0.03222987428307533</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.005382336676120758</v>
+        <v>0.001326830009929836</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.006548251025378704</v>
+        <v>0.004435450304299593</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01220483053475618</v>
+        <v>0.01542688626796007</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0339370034635067</v>
+        <v>0.0161537192761898</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.02994364313781261</v>
+        <v>0.03859755396842957</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.001939966576173902</v>
+        <v>0.002770435996353626</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.02998090907931328</v>
+        <v>0.003386207390576601</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.004203095566481352</v>
+        <v>0.002396240830421448</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.02299086190760136</v>
+        <v>0.008686551824212074</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0009754366474226117</v>
+        <v>0.0007657431997358799</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0002825801784638315</v>
+        <v>0.004424836952239275</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.02591091766953468</v>
+        <v>0.01537936553359032</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.02720136195421219</v>
+        <v>0.01999026536941528</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0060874093323946</v>
+        <v>0.02181441523134708</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.02539462968707085</v>
+        <v>0.0007078601629473269</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.001725025475025177</v>
+        <v>0.01759385131299496</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.01126022636890411</v>
+        <v>0.009334308095276356</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.01399761345237494</v>
+        <v>0.006601404864341021</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.0007460948545485735</v>
+        <v>0.01229801587760448</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.003630066523328424</v>
+        <v>0.004076240584254265</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.001352476421743631</v>
+        <v>0.008237873204052448</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.02022658847272396</v>
+        <v>0.04879670590162277</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.03980303555727005</v>
+        <v>0.1499427706003189</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.05530392378568649</v>
+        <v>0.0001844220678322017</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.01771063730120659</v>
+        <v>0.04057848453521729</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.03065706416964531</v>
+        <v>0.009403831325471401</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.007034813053905964</v>
+        <v>0.02160320617258549</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.01925862208008766</v>
+        <v>0.02064731530845165</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.01967043615877628</v>
+        <v>0.02041184343397617</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.02280459180474281</v>
+        <v>0.01041141990572214</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.01238967105746269</v>
+        <v>0.01509539410471916</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.01168632693588734</v>
+        <v>0.03096080757677555</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.03143254294991493</v>
+        <v>0.0490340031683445</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.04486081749200821</v>
+        <v>0.03899641707539558</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.05627673119306564</v>
+        <v>0.04222442582249641</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.04243768006563187</v>
+        <v>0.02414114214479923</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.01893356814980507</v>
+        <v>0.0306980274617672</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.01787488535046577</v>
+        <v>0.03436363488435745</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.01868481747806072</v>
+        <v>0.0077357217669487</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.01815805211663246</v>
+        <v>0.006798411719501019</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.02147212438285351</v>
+        <v>0.04735756292939186</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.02234297245740891</v>
+        <v>0.02812889404594898</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.005628522019833326</v>
+        <v>0.01979775913059711</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.01764162257313728</v>
+        <v>0.06688415259122849</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.003821644932031631</v>
+        <v>0.01723233237862587</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.01683130115270615</v>
+        <v>0.01287098508328199</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.01499679498374462</v>
+        <v>0.0168320257216692</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.008226824924349785</v>
+        <v>0.008485015481710434</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.0365869551897049</v>
+        <v>0.02061109244823456</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.01688623055815697</v>
+        <v>0.0678454264998436</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.03591964393854141</v>
+        <v>0.02621154114603996</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.03104320168495178</v>
+        <v>0.02008281648159027</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0122986938804388</v>
+        <v>0.002513394458219409</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.02772677689790726</v>
+        <v>0.02017840184271336</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.01846656948328018</v>
+        <v>0.007532679475843906</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.01814327947795391</v>
+        <v>0.02520492300391197</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.006022187881171703</v>
+        <v>0.01175673492252827</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.02932929806411266</v>
+        <v>0.004549136385321617</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.007715140003710985</v>
+        <v>0.03398407995700836</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.02079844102263451</v>
+        <v>0.01573731750249863</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.01677775196731091</v>
+        <v>0.02018899843096733</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.001773349591530859</v>
+        <v>0.003694717306643724</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0192959550768137</v>
+        <v>0.009547235444188118</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.005496201105415821</v>
+        <v>0.01422717235982418</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.003641871269792318</v>
+        <v>0.002075456781312823</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.008595804683864117</v>
+        <v>0.01179154310375452</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.01669474318623543</v>
+        <v>0.0407247357070446</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.01937016099691391</v>
+        <v>0.05404458194971085</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.01200331840664148</v>
+        <v>0.005344482138752937</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.004531013779342175</v>
+        <v>0.003744068555533886</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.009872086346149445</v>
+        <v>0.03742179274559021</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.05725443735718727</v>
+        <v>0.01878031902015209</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.006961363833397627</v>
+        <v>0.001900121569633484</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.01386330742388964</v>
+        <v>0.006773190572857857</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.01624045707285404</v>
+        <v>0.00694127194583416</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.0287771113216877</v>
+        <v>0.007499187253415585</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.009597153402864933</v>
+        <v>0.02713833563029766</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.02236871421337128</v>
+        <v>0.02096076123416424</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.01970160752534866</v>
+        <v>0.02927112951874733</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.00231097056530416</v>
+        <v>0.001783945946954191</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.01883793994784355</v>
+        <v>0.004525688476860523</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.003727354574948549</v>
+        <v>0.01872164383530617</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.003203785745427012</v>
+        <v>0.003218716010451317</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.009480239823460579</v>
+        <v>0.009199893102049828</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.02483661100268364</v>
+        <v>0.0129935909062624</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0003380468115210533</v>
+        <v>0.09620144218206406</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.02507891319692135</v>
+        <v>0.01805428601801395</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.02040913514792919</v>
+        <v>0.04345276951789856</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.03106479905545712</v>
+        <v>0.04394727572798729</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.01177899073809385</v>
+        <v>0.008470212109386921</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.01997084356844425</v>
+        <v>0.03157566487789154</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.02073165215551853</v>
+        <v>0.01081379316747189</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.001806172891519964</v>
+        <v>0.02822907827794552</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.02310513891279697</v>
+        <v>0.004779631271958351</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.004044503904879093</v>
+        <v>0.02242838405072689</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.003676036838442087</v>
+        <v>0.01926388964056969</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.01257368829101324</v>
+        <v>0.01159104891121387</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.01494691520929337</v>
+        <v>0.01152861956506968</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.00181471323594451</v>
+        <v>0.003234990639612079</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.01450723968446255</v>
+        <v>0.01033906545490026</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.02100339159369469</v>
+        <v>0.001245525549165905</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.007176743820309639</v>
+        <v>0.01328951492905617</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.008328513242304325</v>
+        <v>0.005165623035281897</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.01835370063781738</v>
+        <v>0.01781869679689407</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.01534049306064844</v>
+        <v>0.01196662150323391</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0154512096196413</v>
+        <v>0.02375212870538235</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.002615452278405428</v>
+        <v>0.01637517474591732</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.01247337274253368</v>
+        <v>0.005139475222676992</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.01219710148870945</v>
+        <v>0.004908929113298655</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.01334916241466999</v>
+        <v>0.02039369009435177</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.004007997922599316</v>
+        <v>0.007403751369565725</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.02577346935868263</v>
+        <v>0.01639188081026077</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.02668098732829094</v>
+        <v>0.005791539791971445</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.01759366132318974</v>
+        <v>0.01165638025850058</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.03567182272672653</v>
+        <v>0.02584907785058022</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.03246793150901794</v>
+        <v>0.001220104866661131</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.02757581323385239</v>
+        <v>0.009981258772313595</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.0001034181332215667</v>
+        <v>0.0179870929569006</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.002213806612417102</v>
+        <v>0.01379217207431793</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.004795848857611418</v>
+        <v>0.004771940875798464</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.01501493528485298</v>
+        <v>0.02146852761507034</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.0005687158554792404</v>
+        <v>0.01083813887089491</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.002609432907775044</v>
+        <v>0.02908244170248508</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.01458404213190079</v>
+        <v>0.02162539027631283</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01695354282855988</v>
+        <v>0.009593983180820942</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.006155863869935274</v>
+        <v>0.0192874800413847</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.02248002216219902</v>
+        <v>0.01812324859201908</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.00881484430283308</v>
+        <v>0.009983177296817303</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.00777231203392148</v>
+        <v>0.00060926319565624</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.02941929362714291</v>
+        <v>0.006733211223036051</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.013280906714499</v>
+        <v>0.0254362802952528</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.02065258845686913</v>
+        <v>0.01553015783429146</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.01956172287464142</v>
+        <v>0.02168773114681244</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.0004308843635953963</v>
+        <v>0.004393397364765406</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.0169255118817091</v>
+        <v>0.008303079754114151</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.003410530276596546</v>
+        <v>0.0213442537933588</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.002967538312077522</v>
+        <v>0.005708687473088503</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.007312367670238018</v>
+        <v>0.01260432042181492</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.01337207481265068</v>
+        <v>0.02289289236068726</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.01451748516410589</v>
+        <v>0.01121392566710711</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.0302000418305397</v>
+        <v>0.01420513074845076</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.01133474335074425</v>
+        <v>0.01582640409469604</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0004503574455156922</v>
+        <v>0.02023430913686752</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.04454787448048592</v>
+        <v>0.01138448715209961</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.002813736908137798</v>
+        <v>0.002915454562753439</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0001108008436858654</v>
+        <v>0.009559748694300652</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.008276172913610935</v>
+        <v>0.002640916267409921</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.0197785347700119</v>
+        <v>0.009429987519979477</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.03093164600431919</v>
+        <v>0.02265161648392677</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.004916812293231487</v>
+        <v>0.01594454981386662</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.01001170836389065</v>
+        <v>0.03036906942725182</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.01236805785447359</v>
+        <v>0.03440292179584503</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.03376287966966629</v>
+        <v>0.01892963238060474</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.003169609233736992</v>
+        <v>0.03966683149337769</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.01439709216356277</v>
+        <v>0.03036275878548622</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.02309040911495686</v>
+        <v>0.009992369450628757</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.01651182025671005</v>
+        <v>0.02859909646213055</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.005665046628564596</v>
+        <v>0.02263999171555042</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.005528666079044342</v>
+        <v>0.00462054880335927</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.01719941943883896</v>
+        <v>0.02345587126910686</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.02223992720246315</v>
+        <v>0.009119094349443913</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.01236900314688683</v>
+        <v>0.01044301223009825</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.0105927437543869</v>
+        <v>0.04068347439169884</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.003025471698492765</v>
+        <v>0.02861273847520351</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.01052222680300474</v>
+        <v>0.0192599818110466</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0004303854366298765</v>
+        <v>0.005577217787504196</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0009085592464543879</v>
+        <v>0.08181694895029068</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00549186859279871</v>
+        <v>0.0112439664080739</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0007962766685523093</v>
+        <v>0.02774927578866482</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002019108971580863</v>
+        <v>0.01555256918072701</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001406795578077435</v>
+        <v>0.008924899622797966</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004472332657314837</v>
+        <v>0.005500447005033493</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002923181047663093</v>
+        <v>0.002667081076651812</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00151008740067482</v>
+        <v>0.02973940782248974</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0003702109970618039</v>
+        <v>0.006564578041434288</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0006030346266925335</v>
+        <v>0.06162454187870026</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005306026432663202</v>
+        <v>0.0003935341374017298</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0004100319347344339</v>
+        <v>0.03025171346962452</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0009820191189646721</v>
+        <v>0.02874569222331047</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0009733079350553453</v>
+        <v>0.01478722132742405</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0004064822860527784</v>
+        <v>0.007391892373561859</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002802320523187518</v>
+        <v>0.009984508156776428</v>
       </c>
       <c r="R13" t="n">
-        <v>0.00158367061521858</v>
+        <v>0.02296563982963562</v>
       </c>
       <c r="S13" t="n">
-        <v>0.000121273122204002</v>
+        <v>0.000629714981187135</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0009759149397723377</v>
+        <v>0.01806139200925827</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0002263258647872135</v>
+        <v>0.01222300715744495</v>
       </c>
       <c r="V13" t="n">
-        <v>7.042623474262655e-05</v>
+        <v>0.0101562300696969</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0003756407531909645</v>
+        <v>0.00310497940517962</v>
       </c>
       <c r="X13" t="n">
-        <v>5.052402048022486e-05</v>
+        <v>0.01336128637194633</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0001216998571180739</v>
+        <v>0.003184475935995579</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001035506371408701</v>
+        <v>0.002065240172669291</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0003307464357931167</v>
+        <v>0.005586629267781973</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0001515335461590439</v>
+        <v>0.007040683180093765</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0004350323579274118</v>
+        <v>0.012672477401793</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0008876174688339233</v>
+        <v>0.001511023263446987</v>
       </c>
       <c r="AE13" t="n">
-        <v>3.706882853293791e-05</v>
+        <v>0.002878102706745267</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0004144026897847652</v>
+        <v>0.002717307303100824</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0001456759637221694</v>
+        <v>0.007587906904518604</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0006176704191602767</v>
+        <v>0.003580895951017737</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0001227257598657161</v>
+        <v>0.01166909281164408</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0007167562143877149</v>
+        <v>0.004049635492265224</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0001164300992968492</v>
+        <v>0.00681639090180397</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0001963354297913611</v>
+        <v>0.00700068287551403</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.001098080538213253</v>
+        <v>0.004760242067277431</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.000224252522457391</v>
+        <v>0.0005591129884123802</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0008648518705740571</v>
+        <v>0.009868954308331013</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0001912645529955626</v>
+        <v>0.008202323690056801</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4.647500099963509e-05</v>
+        <v>0.005432981066405773</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0001217082171933725</v>
+        <v>0.001061122864484787</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.557486706995405e-05</v>
+        <v>0.002713993657380342</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.000100778168416582</v>
+        <v>0.00717720203101635</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.000549845804926008</v>
+        <v>0.0612245686352253</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.002309026895090938</v>
+        <v>0.001353890518657863</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0004795666027348489</v>
+        <v>0.002556977793574333</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0001993070618482307</v>
+        <v>0.002106440253555775</v>
       </c>
       <c r="AY13" t="n">
-        <v>7.286333129741251e-06</v>
+        <v>0.0006088865920901299</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0001968074648175389</v>
+        <v>0.006376376841217279</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0009268674184568226</v>
+        <v>0.001268741209059954</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0003970463876612484</v>
+        <v>0.006994714960455894</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0001755128178047016</v>
+        <v>0.002461488358676434</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.747871283441782e-05</v>
+        <v>0.02171889320015907</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.001394472783431411</v>
+        <v>0.01353149674832821</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0004625667934305966</v>
+        <v>0.004940791986882687</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.001483248081058264</v>
+        <v>0.02272762358188629</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0005658899317495525</v>
+        <v>0.01723606139421463</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0001951864105649292</v>
+        <v>0.002239266876131296</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.001484892447479069</v>
+        <v>0.01201801467686892</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0009790998883545399</v>
+        <v>0.01018952764570713</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0004058801860082895</v>
+        <v>0.007259672973304987</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.00038634188240394</v>
+        <v>0.01932142861187458</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.001259564771316946</v>
+        <v>0.00745469331741333</v>
       </c>
       <c r="BO13" t="n">
-        <v>7.221278792712837e-05</v>
+        <v>0.0004404140636324883</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0006910699303261936</v>
+        <v>0.0320940837264061</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.000263427005847916</v>
+        <v>0.01541776955127716</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0004629639151971787</v>
+        <v>0.0002983546582981944</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0005114403320476413</v>
+        <v>0.006778035778552294</v>
       </c>
       <c r="BT13" t="n">
-        <v>7.101526716724038e-05</v>
+        <v>0.001143224537372589</v>
       </c>
       <c r="BU13" t="n">
-        <v>7.968727732077241e-05</v>
+        <v>0.004162495024502277</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0003646285331342369</v>
+        <v>0.03687386214733124</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.001525801606476307</v>
+        <v>0.007553076837211847</v>
       </c>
       <c r="BX13" t="n">
-        <v>2.831452911777887e-05</v>
+        <v>0.006883584894239902</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0005430849269032478</v>
+        <v>0.003288321197032928</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0009533041156828403</v>
+        <v>0.01656896993517876</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0001815964060369879</v>
+        <v>0.01015130430459976</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0007843169732950628</v>
+        <v>0.0009626783430576324</v>
       </c>
       <c r="CC13" t="n">
-        <v>4.903871740680188e-06</v>
+        <v>0.009509571827948093</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0002383894170634449</v>
+        <v>0.0004868190153501928</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0001535590999992564</v>
+        <v>0.01571660675108433</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.001023153425194323</v>
+        <v>0.0008142953156493604</v>
       </c>
       <c r="CG13" t="n">
-        <v>8.256736327894032e-05</v>
+        <v>0.006157900672405958</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0004227857571095228</v>
+        <v>0.001928249490447342</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0002851557510439306</v>
+        <v>0.0002277829335071146</v>
       </c>
       <c r="CJ13" t="n">
-        <v>7.787122740410268e-05</v>
+        <v>0.0002623059554025531</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.000300621846690774</v>
+        <v>0.002545910654589534</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0002193249820265919</v>
+        <v>0.008202461525797844</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0002631359966471791</v>
+        <v>0.02128502726554871</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.0008644536719657481</v>
+        <v>0.02638017758727074</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0003238327917642891</v>
+        <v>0.0006120869074948132</v>
       </c>
       <c r="CP13" t="n">
-        <v>5.128610791871324e-05</v>
+        <v>0.00505746528506279</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0009020797442644835</v>
+        <v>0.01283807959407568</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0005463785491883755</v>
+        <v>0.005179241765290499</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0004027188697364181</v>
+        <v>0.006036272272467613</v>
       </c>
       <c r="CT13" t="n">
-        <v>7.422985800076276e-05</v>
+        <v>0.01876058056950569</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0005304040387272835</v>
+        <v>0.0007480415515601635</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0001776763529051095</v>
+        <v>0.0006716311909258366</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0001287288905587047</v>
+        <v>0.01276132371276617</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.00108843413181603</v>
+        <v>0.004110593348741531</v>
       </c>
       <c r="CY13" t="n">
-        <v>3.297717194072902e-05</v>
+        <v>0.007710284553468227</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0007722974987700582</v>
+        <v>0.0005507836467586458</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.000217564360355027</v>
+        <v>0.00246357312425971</v>
       </c>
       <c r="DB13" t="n">
-        <v>8.018482913030311e-05</v>
+        <v>0.000553128425963223</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0003636945621110499</v>
+        <v>0.0004371636314317584</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0001303345925407484</v>
+        <v>0.006601123139262199</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0005723780486732721</v>
+        <v>0.01504436228424311</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0004408801614772528</v>
+        <v>0.04893117025494576</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0007071164436638355</v>
+        <v>0.007764552719891071</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0001544493861729279</v>
+        <v>0.02690008655190468</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0004049303533975035</v>
+        <v>0.003283495781943202</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0001235125964740291</v>
+        <v>0.001130824559368193</v>
       </c>
       <c r="DK13" t="n">
-        <v>1.798983794287778e-05</v>
+        <v>0.02275311574339867</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0004800727765541524</v>
+        <v>0.007513593882322311</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0001570702879689634</v>
+        <v>0.00869280006736517</v>
       </c>
       <c r="DN13" t="n">
-        <v>8.230287494370714e-05</v>
+        <v>0.008954067714512348</v>
       </c>
       <c r="DO13" t="n">
-        <v>1.73784646904096e-05</v>
+        <v>0.01307326927781105</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0001276917901122943</v>
+        <v>0.007744127418845892</v>
       </c>
       <c r="DQ13" t="n">
-        <v>5.462245462695137e-05</v>
+        <v>0.009497127495706081</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.000213968291063793</v>
+        <v>0.003453061450272799</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.000604118627961725</v>
+        <v>0.0003907356294803321</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0001269917411264032</v>
+        <v>0.01342370361089706</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0004291102522984147</v>
+        <v>0.001012612250633538</v>
       </c>
       <c r="DV13" t="n">
-        <v>3.983456554124132e-05</v>
+        <v>0.0005890540778636932</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0001848667889134958</v>
+        <v>0.005858222953975201</v>
       </c>
       <c r="DX13" t="n">
-        <v>9.187443356495351e-05</v>
+        <v>0.006299820728600025</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0007067410042509437</v>
+        <v>0.006810321938246489</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0005027172155678272</v>
+        <v>0.008689533919095993</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0003678566718008369</v>
+        <v>0.008980863727629185</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0001405410730512813</v>
+        <v>0.005187788046896458</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0001549435401102528</v>
+        <v>0.005958992056548595</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0003315381472930312</v>
+        <v>0.005807351786643267</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0002731525164563209</v>
+        <v>0.001264015212655067</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0007735735271126032</v>
+        <v>0.002550193341448903</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0006315467180684209</v>
+        <v>0.001215407974086702</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.001087252050638199</v>
+        <v>0.00156169175170362</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0001806960208341479</v>
+        <v>0.005013321526348591</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0003489199443720281</v>
+        <v>0.003439276479184628</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0008717361488379538</v>
+        <v>0.001821031095460057</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0002254897699458525</v>
+        <v>0.003527778200805187</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0006714660557918251</v>
+        <v>0.002081247046589851</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.0002788133278954774</v>
+        <v>0.009068487212061882</v>
       </c>
       <c r="EO13" t="n">
-        <v>6.581805064342916e-05</v>
+        <v>0.007313637528568506</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.0005802068626508117</v>
+        <v>0.005893096327781677</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0006128859822638333</v>
+        <v>0.006061414256691933</v>
       </c>
       <c r="ER13" t="n">
-        <v>1.400064502377063e-05</v>
+        <v>0.00801367312669754</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.0002507520257495344</v>
+        <v>0.005950230173766613</v>
       </c>
       <c r="ET13" t="n">
-        <v>1.944188989000395e-05</v>
+        <v>0.01501781307160854</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0004090103902854025</v>
+        <v>0.004631198011338711</v>
       </c>
       <c r="EV13" t="n">
-        <v>8.283781789941713e-05</v>
+        <v>0.007759266532957554</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0004879490588791668</v>
+        <v>0.004215966910123825</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0004001655033789575</v>
+        <v>0.0001922965748235583</v>
       </c>
       <c r="EY13" t="n">
-        <v>5.775799945695326e-05</v>
+        <v>0.01377889793366194</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.001100879395380616</v>
+        <v>0.002160920994356275</v>
       </c>
       <c r="FA13" t="n">
-        <v>9.457190026296303e-05</v>
+        <v>0.006617360282689333</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0006019948050379753</v>
+        <v>0.0008429228328168392</v>
       </c>
       <c r="FC13" t="n">
-        <v>1.836800583987497e-05</v>
+        <v>0.004469577688723803</v>
       </c>
       <c r="FD13" t="n">
-        <v>3.060908056795597e-05</v>
+        <v>0.001931151957251132</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0004818778834305704</v>
+        <v>0.003167775459587574</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0001509823487140238</v>
+        <v>0.006063043605536222</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.000122831916087307</v>
+        <v>0.004829824436455965</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.0001828255772124976</v>
+        <v>0.005960780661553144</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0006266195559874177</v>
+        <v>0.001863262965343893</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.0007470758282579482</v>
+        <v>0.006913785357028246</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0006283118273131549</v>
+        <v>0.00540013425052166</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0002695059520192444</v>
+        <v>0.003205910790711641</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0005504562868736684</v>
+        <v>0.004379042889922857</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0002232359838671982</v>
+        <v>0.00561832170933485</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0001359974557999521</v>
+        <v>0.01132174395024776</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0006176446913741529</v>
+        <v>0.003424943191930652</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.001647547585889697</v>
+        <v>0.008656037040054798</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.0009954011766240001</v>
+        <v>0.01120005268603563</v>
       </c>
       <c r="FS13" t="n">
-        <v>9.302315447712317e-05</v>
+        <v>0.006004481576383114</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0005206572241149843</v>
+        <v>0.01260336302220821</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.0006294661434367299</v>
+        <v>0.009432514198124409</v>
       </c>
       <c r="FV13" t="n">
-        <v>1.51485992319067e-05</v>
+        <v>0.001744563924148679</v>
       </c>
       <c r="FW13" t="n">
-        <v>2.172127096855547e-05</v>
+        <v>0.004155617207288742</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0002659665478859097</v>
+        <v>0.004282622598111629</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0002263205533381552</v>
+        <v>0.003095870837569237</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0002468626480549574</v>
+        <v>0.01771042123436928</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0003900281153619289</v>
+        <v>0.01003994420170784</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0001808396773412824</v>
+        <v>0.01269154902547598</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0006889806827530265</v>
+        <v>0.01587923616170883</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0008979239501059055</v>
+        <v>0.01837657205760479</v>
       </c>
       <c r="GE13" t="n">
-        <v>1.641920789552387e-06</v>
+        <v>0.01211925037205219</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.000391664681956172</v>
+        <v>0.003012942150235176</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0001885502424556762</v>
+        <v>0.003402496920898557</v>
       </c>
     </row>
     <row r="14">
@@ -8401,1140 +8401,1140 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01211326196789742</v>
+        <v>0.02057583630084991</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00399366719648242</v>
+        <v>0.07483111321926117</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02079434506595135</v>
+        <v>0.04906534403562546</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002983428770676255</v>
+        <v>0.01722148805856705</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005696934647858143</v>
+        <v>0.08054881542921066</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01265169959515333</v>
+        <v>0.006956384982913733</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007985728792846203</v>
+        <v>0.04447163268923759</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007726732641458511</v>
+        <v>0.01133394800126553</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0006890082731842995</v>
+        <v>0.02648514322936535</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008403908461332321</v>
+        <v>0.01259789243340492</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002602154854685068</v>
+        <v>0.05307179689407349</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01975483074784279</v>
+        <v>0.03256750106811523</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005527697037905455</v>
+        <v>0.03793755918741226</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01451696082949638</v>
+        <v>0.1140828654170036</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01292092353105545</v>
+        <v>0.02053695730865002</v>
       </c>
       <c r="P15" t="n">
-        <v>0.006910646799951792</v>
+        <v>0.03698839247226715</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.006786721758544445</v>
+        <v>0.00868544727563858</v>
       </c>
       <c r="R15" t="n">
-        <v>0.004345139022916555</v>
+        <v>0.01171412132680416</v>
       </c>
       <c r="S15" t="n">
-        <v>0.00240908027626574</v>
+        <v>0.00317345978692174</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0002022642875090241</v>
+        <v>0.02187497168779373</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001334241474978626</v>
+        <v>0.001426278962753713</v>
       </c>
       <c r="V15" t="n">
-        <v>0.002404146827757359</v>
+        <v>0.007074854802340269</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002926131011918187</v>
+        <v>0.01103164441883564</v>
       </c>
       <c r="X15" t="n">
-        <v>0.001235943753272295</v>
+        <v>0.01635158434510231</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0009729855228215456</v>
+        <v>0.004036804661154747</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.002209062688052654</v>
+        <v>0.004362444393336773</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.001023420132696629</v>
+        <v>0.001436148420907557</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.001116860657930374</v>
+        <v>0.008066023699939251</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.001741445856168866</v>
+        <v>0.02454878017306328</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0009162203641608357</v>
+        <v>0.009242060594260693</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.002836089348420501</v>
+        <v>0.0006583421491086483</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.001315233414061368</v>
+        <v>0.00960334949195385</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.004120499361306429</v>
+        <v>0.005722085945308208</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.005534017458558083</v>
+        <v>0.006389723159372807</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.007860231213271618</v>
+        <v>0.01486492902040482</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.0002994062379002571</v>
+        <v>0.01306821219623089</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.001493197050876915</v>
+        <v>0.004867134150117636</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.002464340068399906</v>
+        <v>0.03691645339131355</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.006667152047157288</v>
+        <v>0.002818814478814602</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.003568187821656466</v>
+        <v>0.002838947810232639</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.001887917635031044</v>
+        <v>0.01108430046588182</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.003872250206768513</v>
+        <v>0.02155855111777782</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.001154604600742459</v>
+        <v>0.01011637877672911</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0002273493737448007</v>
+        <v>0.01762829348444939</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0004034244921058416</v>
+        <v>0.024378577247262</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.002939315978437662</v>
+        <v>0.03590576723217964</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0001903144875541329</v>
+        <v>0.08778438717126846</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.004998108837753534</v>
+        <v>0.03726780787110329</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.01299256179481745</v>
+        <v>0.02334977686405182</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.01110825221985579</v>
+        <v>0.01487364806234837</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.008184416219592094</v>
+        <v>0.01033271756023169</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.01157400943338871</v>
+        <v>0.01862562447786331</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.00627280306071043</v>
+        <v>0.01421504933387041</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.00226954510435462</v>
+        <v>0.01691875793039799</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.004668465349823236</v>
+        <v>0.01386817172169685</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.006386309862136841</v>
+        <v>0.007554469630122185</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.003775396384298801</v>
+        <v>0.01935680210590363</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.004140567500144243</v>
+        <v>0.02994317933917046</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.01279155351221561</v>
+        <v>0.08335790783166885</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.003954238258302212</v>
+        <v>0.01776295714080334</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.01410382986068726</v>
+        <v>0.01877301931381226</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.007635388989001513</v>
+        <v>0.01225454546511173</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.003859816351905465</v>
+        <v>0.01564279943704605</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.002209109952673316</v>
+        <v>0.02889508567750454</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.006266541313380003</v>
+        <v>0.02272121235728264</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.007212443277239799</v>
+        <v>0.01437527593225241</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.001992194913327694</v>
+        <v>0.01574861258268356</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.006178018637001514</v>
+        <v>0.06987655907869339</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.00328907324001193</v>
+        <v>0.009744852781295776</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.002396374242380261</v>
+        <v>0.01798508316278458</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.004151775967329741</v>
+        <v>0.03071337565779686</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.003732086624950171</v>
+        <v>0.01180544495582581</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.003078935667872429</v>
+        <v>0.02315126359462738</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.0005257665761746466</v>
+        <v>0.03904903680086136</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.00891062431037426</v>
+        <v>0.04626278206706047</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.001093289698474109</v>
+        <v>0.001457519829273224</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.01351714134216309</v>
+        <v>0.006299713626503944</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.007494798861443996</v>
+        <v>0.004780526272952557</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.006587524432688951</v>
+        <v>0.02566493488848209</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0101057505235076</v>
+        <v>0.004976019263267517</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.002682109363377094</v>
+        <v>0.00621710903942585</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.003145536873489618</v>
+        <v>0.005549275316298008</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0004617722588591278</v>
+        <v>0.01665555499494076</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.003487433772534132</v>
+        <v>0.00274688983336091</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.0006776354275643826</v>
+        <v>0.01360672991722822</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.001606699079275131</v>
+        <v>0.01522816997021437</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.002590419957414269</v>
+        <v>0.001405325368978083</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.0007734106038697064</v>
+        <v>0.0004023009678348899</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.001347886864095926</v>
+        <v>0.001235356670804322</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0007482673972845078</v>
+        <v>0.006800883449614048</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.001276299473829567</v>
+        <v>0.03501879423856735</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.003446305170655251</v>
+        <v>0.01121234335005283</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.00511319050565362</v>
+        <v>0.01463074423372746</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.003157245926558971</v>
+        <v>0.008124202489852905</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.002685379702597857</v>
+        <v>0.001289255917072296</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.001989099895581603</v>
+        <v>0.01241162698715925</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.00443264190107584</v>
+        <v>0.003107709810137749</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.005426669493317604</v>
+        <v>0.00127884466201067</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.001693824538961053</v>
+        <v>0.008939040824770927</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.004738891031593084</v>
+        <v>0.006797000300139189</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.0007116132765077055</v>
+        <v>0.01034891325980425</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.003274064976722002</v>
+        <v>0.001718280371278524</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.001219894271343946</v>
+        <v>0.009373711422085762</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.002529890742152929</v>
+        <v>0.01425518002361059</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.004027501214295626</v>
+        <v>0.0002338969643460587</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.001052099745720625</v>
+        <v>0.001326714176684618</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.001246277242898941</v>
+        <v>0.0007312120869755745</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.0004570905875880271</v>
+        <v>0.01005438528954983</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.0001321064773947001</v>
+        <v>0.008131092414259911</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.01198133360594511</v>
+        <v>0.04333688318729401</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.003507636021822691</v>
+        <v>0.003267666324973106</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.004569624084979296</v>
+        <v>0.01692524366080761</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.0001861411146819592</v>
+        <v>0.01770849339663982</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.007513714488595724</v>
+        <v>0.009533029049634933</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.007732698228210211</v>
+        <v>0.03285215795040131</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.0009389976039528847</v>
+        <v>0.01911308243870735</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.008067642338573933</v>
+        <v>0.0144334901124239</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.0008509870385751128</v>
+        <v>0.01907974109053612</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.004042134620249271</v>
+        <v>0.01580966077744961</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.001858347211964428</v>
+        <v>0.008707751519978046</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.004073257558047771</v>
+        <v>0.01191053353250027</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.0003610588610172272</v>
+        <v>0.007787025533616543</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.001557668088935316</v>
+        <v>0.01631184108555317</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.001581900403834879</v>
+        <v>0.02252066507935524</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.001205201144330204</v>
+        <v>0.02287577465176582</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.0006440947181545198</v>
+        <v>0.004789398517459631</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.0001897899201139808</v>
+        <v>0.02341415360569954</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.0006780254188925028</v>
+        <v>0.007283469662070274</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.001372469821944833</v>
+        <v>0.004801771137863398</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0004007774405181408</v>
+        <v>0.01867637597024441</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.002787316683679819</v>
+        <v>0.01162310037761927</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.00151326390914619</v>
+        <v>0.02449572272598743</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.00259074941277504</v>
+        <v>0.005285193212330341</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.002716813236474991</v>
+        <v>0.002437445567920804</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.004045559093356133</v>
+        <v>0.003006317187100649</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.00055289565352723</v>
+        <v>0.000155535526573658</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.003733012359589338</v>
+        <v>8.134241215884686e-05</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.003961320500820875</v>
+        <v>0.004307840019464493</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.0006470333319157362</v>
+        <v>0.01603903621435165</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.004495234228670597</v>
+        <v>0.01840828731656075</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.002661582548171282</v>
+        <v>0.0009549966780468822</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.001524116611108184</v>
+        <v>0.01874890737235546</v>
       </c>
       <c r="EM15" t="n">
-        <v>4.2892643250525e-05</v>
+        <v>0.008487431332468987</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.003907368518412113</v>
+        <v>0.01313724275678396</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.0004222883435431868</v>
+        <v>0.008100053295493126</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.002380980411544442</v>
+        <v>0.001004362478852272</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.0006411719368770719</v>
+        <v>0.01943324878811836</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.001232178998179734</v>
+        <v>0.005500687751919031</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.005540684796869755</v>
+        <v>0.01042971666902304</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.001682834583334625</v>
+        <v>0.006556629668921232</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.00137425190769136</v>
+        <v>0.02445177361369133</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.003102014306932688</v>
+        <v>0.01576049998402596</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.002030689734965563</v>
+        <v>0.02433540858328342</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.002604845212772489</v>
+        <v>0.005366778932511806</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.0009598385076969862</v>
+        <v>0.01103915367275476</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.003232885152101517</v>
+        <v>0.001555830240249634</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.001415585167706013</v>
+        <v>0.0123233525082469</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.001742450753226876</v>
+        <v>0.01921996846795082</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.00244968431070447</v>
+        <v>0.001667438074946404</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.001366112264804542</v>
+        <v>0.003719652537256479</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.001932341605424881</v>
+        <v>0.002603244502097368</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.001436644233763218</v>
+        <v>0.0022417395375669</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.005569142289459705</v>
+        <v>0.02794861234724522</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.006590604782104492</v>
+        <v>0.01844304427504539</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.004539621993899345</v>
+        <v>0.01132637169212103</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.004576493985950947</v>
+        <v>0.001578046474605799</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.00474372785538435</v>
+        <v>0.01332500111311674</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.005011579021811485</v>
+        <v>0.002739546354860067</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.0008538176771253347</v>
+        <v>0.01649260893464088</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.003189688781276345</v>
+        <v>0.0194072350859642</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.002627386013045907</v>
+        <v>0.01610025390982628</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.008128710091114044</v>
+        <v>0.01316785998642445</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.005361382849514484</v>
+        <v>0.01469191629439592</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.00560380145907402</v>
+        <v>0.02303907088935375</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.006075688637793064</v>
+        <v>0.03438026830554008</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.005291319917887449</v>
+        <v>0.02160557731986046</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.005871828645467758</v>
+        <v>0.007109254598617554</v>
       </c>
       <c r="FV15" t="n">
-        <v>4.236109089106321e-05</v>
+        <v>0.0008793817833065987</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.001332885818555951</v>
+        <v>0.02773472294211388</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.001896783825941384</v>
+        <v>0.01125966012477875</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.003976361360400915</v>
+        <v>0.007975019514560699</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.005228452384471893</v>
+        <v>0.01593546196818352</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.0002679360331967473</v>
+        <v>0.008739657700061798</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.00266050104983151</v>
+        <v>0.02642921544611454</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.005636809393763542</v>
+        <v>0.004086407832801342</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.001334090018644929</v>
+        <v>0.03158072754740715</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.0006717781070619822</v>
+        <v>0.02497965283691883</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.001701235654763877</v>
+        <v>0.006407864391803741</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.004336831159889698</v>
+        <v>0.004514980129897594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0001871520362328738</v>
+        <v>1.428835093975067e-05</v>
       </c>
       <c r="B16" t="n">
-        <v>1.699007407296449e-05</v>
+        <v>9.338073141407222e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002400555822532624</v>
+        <v>4.142770194448531e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0001095965708373114</v>
+        <v>2.67312989308266e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>6.607966497540474e-05</v>
+        <v>3.405228926567361e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>2.869882700906601e-05</v>
+        <v>9.266459528589621e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>8.979739504866302e-05</v>
+        <v>4.200219336780719e-07</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0003110143006779253</v>
+        <v>2.515717824280728e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000104509133961983</v>
+        <v>3.966871190641541e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001295281108468771</v>
+        <v>3.473569449852221e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>2.208043588325381e-05</v>
+        <v>6.621307693421841e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000232353457249701</v>
+        <v>1.699189488135744e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>1.086476549971849e-05</v>
+        <v>2.555420724092983e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0001457933103665709</v>
+        <v>5.147325282450765e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>9.962470358004794e-05</v>
+        <v>8.505834557581693e-06</v>
       </c>
       <c r="P16" t="n">
-        <v>6.097524965298362e-05</v>
+        <v>2.399729964963626e-06</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0003230089205317199</v>
+        <v>7.058922165015247e-06</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0002508631732780486</v>
+        <v>1.243484916813031e-06</v>
       </c>
       <c r="S16" t="n">
-        <v>5.459048679767875e-06</v>
+        <v>2.427381787128979e-06</v>
       </c>
       <c r="T16" t="n">
-        <v>5.63543799216859e-05</v>
+        <v>2.016581674979534e-05</v>
       </c>
       <c r="U16" t="n">
-        <v>5.540719939745031e-06</v>
+        <v>7.499852472392377e-06</v>
       </c>
       <c r="V16" t="n">
-        <v>3.051388921448961e-05</v>
+        <v>5.602098099188879e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>1.099649580282858e-06</v>
+        <v>2.990789198520361e-07</v>
       </c>
       <c r="X16" t="n">
-        <v>9.809729817789048e-05</v>
+        <v>3.123104033875279e-05</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.679123205482028e-05</v>
+        <v>5.726216841139831e-06</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0001320766605203971</v>
+        <v>1.954111939994618e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0001558631483931094</v>
+        <v>3.481538442429155e-06</v>
       </c>
       <c r="AB16" t="n">
-        <v>2.477744601492304e-05</v>
+        <v>1.09019129013177e-06</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.271994061535224e-05</v>
+        <v>2.332952135475352e-05</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0001007689716061577</v>
+        <v>9.496336133452132e-06</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.053365485859104e-05</v>
+        <v>4.947361958329566e-06</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.808501636143774e-05</v>
+        <v>1.649263685976621e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0001070768776116893</v>
+        <v>5.094738298794255e-06</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0001767287903930992</v>
+        <v>5.553578375838697e-06</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.0001324303593719378</v>
+        <v>4.158746833127225e-06</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0001355503918603063</v>
+        <v>2.4290852707054e-07</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.985385046689771e-05</v>
+        <v>7.700558853684925e-06</v>
       </c>
       <c r="AL16" t="n">
-        <v>7.383633783319965e-05</v>
+        <v>2.822885835485067e-05</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.245563362317625e-05</v>
+        <v>2.103640326822642e-06</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.000104588849353604</v>
+        <v>9.52256414166186e-07</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.0001343446492683142</v>
+        <v>1.122400863096118e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.766626832657494e-05</v>
+        <v>1.015481029753573e-05</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.549988883198239e-05</v>
+        <v>5.268935638014227e-06</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.780949398584198e-05</v>
+        <v>6.268274773901794e-06</v>
       </c>
       <c r="AS16" t="n">
-        <v>5.910684194532223e-05</v>
+        <v>1.438257186237024e-05</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.0001965908013517037</v>
+        <v>1.549760781927034e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.0002290160919073969</v>
+        <v>0.0001001762939267792</v>
       </c>
       <c r="AV16" t="n">
-        <v>7.778562576277182e-05</v>
+        <v>2.083834806398954e-05</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.0002008810261031613</v>
+        <v>5.830106601933949e-07</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0002836972125805914</v>
+        <v>1.061063267115969e-05</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.0001258772826986387</v>
+        <v>4.505078777583549e-06</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2.170689185732044e-05</v>
+        <v>5.755078746005893e-06</v>
       </c>
       <c r="BA16" t="n">
-        <v>6.412627408280969e-05</v>
+        <v>2.073354153253604e-05</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0001315237459493801</v>
+        <v>2.356637196498923e-05</v>
       </c>
       <c r="BC16" t="n">
-        <v>4.752518725581467e-05</v>
+        <v>6.447183977797977e-07</v>
       </c>
       <c r="BD16" t="n">
-        <v>5.418976070359349e-05</v>
+        <v>2.709029558900511e-06</v>
       </c>
       <c r="BE16" t="n">
-        <v>3.722736437339336e-05</v>
+        <v>1.951934973476455e-05</v>
       </c>
       <c r="BF16" t="n">
-        <v>6.711523747071624e-05</v>
+        <v>8.479830285068601e-06</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.000373358721844852</v>
+        <v>5.752463766839355e-05</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.415266979165608e-05</v>
+        <v>1.657468237681314e-05</v>
       </c>
       <c r="BI16" t="n">
-        <v>7.768874638713896e-06</v>
+        <v>4.647508831112646e-06</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.0002204850607085973</v>
+        <v>6.351865522447042e-06</v>
       </c>
       <c r="BK16" t="n">
-        <v>1.859130497905426e-05</v>
+        <v>8.740386874706019e-06</v>
       </c>
       <c r="BL16" t="n">
-        <v>4.317742423154414e-06</v>
+        <v>2.68265630438691e-05</v>
       </c>
       <c r="BM16" t="n">
-        <v>3.603333425417077e-06</v>
+        <v>2.562477129686158e-05</v>
       </c>
       <c r="BN16" t="n">
-        <v>4.600192551151849e-05</v>
+        <v>1.207731111207977e-05</v>
       </c>
       <c r="BO16" t="n">
-        <v>6.507920625153929e-05</v>
+        <v>1.542829340905882e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>2.066371962428093e-05</v>
+        <v>4.164353958913125e-05</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.0001380151661578566</v>
+        <v>9.951450010703411e-06</v>
       </c>
       <c r="BR16" t="n">
-        <v>7.936042675282806e-05</v>
+        <v>9.75253260548925e-06</v>
       </c>
       <c r="BS16" t="n">
-        <v>8.208322105929255e-05</v>
+        <v>2.005417263717391e-05</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.0001329853403149173</v>
+        <v>4.405737854540348e-06</v>
       </c>
       <c r="BU16" t="n">
-        <v>8.379211067222059e-05</v>
+        <v>1.375638385070488e-05</v>
       </c>
       <c r="BV16" t="n">
-        <v>8.752527355682105e-05</v>
+        <v>4.945105320075527e-05</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.000105445840745233</v>
+        <v>3.078885492868721e-05</v>
       </c>
       <c r="BX16" t="n">
-        <v>8.189484651666135e-05</v>
+        <v>5.550747118832078e-06</v>
       </c>
       <c r="BY16" t="n">
-        <v>4.955109034199268e-05</v>
+        <v>2.04853386094328e-05</v>
       </c>
       <c r="BZ16" t="n">
-        <v>3.810032649198547e-05</v>
+        <v>2.617120662762318e-05</v>
       </c>
       <c r="CA16" t="n">
-        <v>1.630549741094001e-05</v>
+        <v>1.596556649019476e-05</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.0001004274963634089</v>
+        <v>8.423590998063446e-07</v>
       </c>
       <c r="CC16" t="n">
-        <v>6.017273335601203e-05</v>
+        <v>1.594760578882415e-05</v>
       </c>
       <c r="CD16" t="n">
-        <v>2.099429548252374e-05</v>
+        <v>6.900510470586596e-06</v>
       </c>
       <c r="CE16" t="n">
-        <v>7.362080214079469e-05</v>
+        <v>1.59438895934727e-05</v>
       </c>
       <c r="CF16" t="n">
-        <v>2.772457082755864e-05</v>
+        <v>2.008353249038919e-06</v>
       </c>
       <c r="CG16" t="n">
-        <v>1.84195760084549e-05</v>
+        <v>1.235542185895611e-05</v>
       </c>
       <c r="CH16" t="n">
-        <v>4.171769978711382e-05</v>
+        <v>2.11903795843682e-07</v>
       </c>
       <c r="CI16" t="n">
-        <v>2.842870117092389e-06</v>
+        <v>6.670194125035778e-06</v>
       </c>
       <c r="CJ16" t="n">
-        <v>1.220700505655259e-05</v>
+        <v>5.398431767389411e-06</v>
       </c>
       <c r="CK16" t="n">
-        <v>1.729961149976589e-05</v>
+        <v>4.778838956553955e-06</v>
       </c>
       <c r="CL16" t="n">
-        <v>2.970183595607523e-05</v>
+        <v>8.556488637623261e-07</v>
       </c>
       <c r="CM16" t="n">
-        <v>5.70326556044165e-05</v>
+        <v>2.686978223209735e-05</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.0001216241507790983</v>
+        <v>2.470951949362643e-05</v>
       </c>
       <c r="CO16" t="n">
-        <v>8.066066220635548e-05</v>
+        <v>1.108369360736106e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>7.702296716161072e-05</v>
+        <v>3.374269908817951e-06</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.0001590183383086696</v>
+        <v>1.570577660459094e-05</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.0001212316274177283</v>
+        <v>2.460757286826265e-06</v>
       </c>
       <c r="CS16" t="n">
-        <v>8.08116456028074e-05</v>
+        <v>2.933611540356651e-07</v>
       </c>
       <c r="CT16" t="n">
-        <v>2.354962998651899e-05</v>
+        <v>1.292679712605604e-06</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.0001309095678152516</v>
+        <v>1.481597337260609e-05</v>
       </c>
       <c r="CV16" t="n">
-        <v>3.676945198094472e-05</v>
+        <v>7.837722478143405e-06</v>
       </c>
       <c r="CW16" t="n">
-        <v>9.881196456262842e-05</v>
+        <v>1.146716112998547e-05</v>
       </c>
       <c r="CX16" t="n">
-        <v>3.804105654126033e-05</v>
+        <v>1.583936068527692e-06</v>
       </c>
       <c r="CY16" t="n">
-        <v>1.743924258335028e-05</v>
+        <v>1.274879468837753e-05</v>
       </c>
       <c r="CZ16" t="n">
-        <v>6.881845183670521e-05</v>
+        <v>4.09421346603267e-07</v>
       </c>
       <c r="DA16" t="n">
-        <v>2.126192521245684e-05</v>
+        <v>8.329174306709319e-06</v>
       </c>
       <c r="DB16" t="n">
-        <v>1.375718056806363e-06</v>
+        <v>6.262046554184053e-06</v>
       </c>
       <c r="DC16" t="n">
-        <v>2.825033880071715e-05</v>
+        <v>3.958361503464403e-06</v>
       </c>
       <c r="DD16" t="n">
-        <v>1.725754009385128e-05</v>
+        <v>3.84835948352702e-06</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.0001389876852044836</v>
+        <v>2.16142761928495e-05</v>
       </c>
       <c r="DF16" t="n">
-        <v>1.863068246166222e-05</v>
+        <v>3.122362977592275e-05</v>
       </c>
       <c r="DG16" t="n">
-        <v>2.853164551197551e-05</v>
+        <v>1.428919858881272e-06</v>
       </c>
       <c r="DH16" t="n">
-        <v>8.310235716635361e-05</v>
+        <v>3.392662256374024e-05</v>
       </c>
       <c r="DI16" t="n">
-        <v>5.464821879286319e-05</v>
+        <v>2.352840601815842e-05</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.0001333191321464255</v>
+        <v>1.005581907520536e-05</v>
       </c>
       <c r="DK16" t="n">
-        <v>4.768344297190197e-05</v>
+        <v>1.470520874136128e-05</v>
       </c>
       <c r="DL16" t="n">
-        <v>7.563611143268645e-05</v>
+        <v>6.249644229683327e-06</v>
       </c>
       <c r="DM16" t="n">
-        <v>1.82467520062346e-05</v>
+        <v>1.603764940227848e-05</v>
       </c>
       <c r="DN16" t="n">
-        <v>3.206187102477998e-07</v>
+        <v>1.435781086911447e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>4.18540948885493e-05</v>
+        <v>1.061913394551084e-06</v>
       </c>
       <c r="DP16" t="n">
-        <v>3.358878166181967e-05</v>
+        <v>6.809777460148325e-06</v>
       </c>
       <c r="DQ16" t="n">
-        <v>8.280774636659771e-06</v>
+        <v>8.305210030812304e-06</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.0001918163325171918</v>
+        <v>1.680347281762806e-06</v>
       </c>
       <c r="DS16" t="n">
-        <v>3.004836253239773e-05</v>
+        <v>3.708302074301173e-06</v>
       </c>
       <c r="DT16" t="n">
-        <v>1.289127885684138e-05</v>
+        <v>2.743097866186872e-06</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.0001474865566706285</v>
+        <v>1.177943613583921e-05</v>
       </c>
       <c r="DV16" t="n">
-        <v>3.993623977294192e-05</v>
+        <v>1.06503939605318e-05</v>
       </c>
       <c r="DW16" t="n">
-        <v>3.154605656163767e-05</v>
+        <v>1.386850181006594e-05</v>
       </c>
       <c r="DX16" t="n">
-        <v>8.456116120214574e-06</v>
+        <v>1.963678414540482e-06</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.0001265404571313411</v>
+        <v>6.404848136298824e-06</v>
       </c>
       <c r="DZ16" t="n">
-        <v>4.646642082661856e-06</v>
+        <v>1.05880126284319e-05</v>
       </c>
       <c r="EA16" t="n">
-        <v>2.717217103054281e-05</v>
+        <v>2.002874316531233e-05</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.0001315588742727414</v>
+        <v>9.264423169952352e-06</v>
       </c>
       <c r="EC16" t="n">
-        <v>1.097900167223997e-05</v>
+        <v>8.422008249908686e-06</v>
       </c>
       <c r="ED16" t="n">
-        <v>2.256891821161844e-05</v>
+        <v>7.522634405177087e-06</v>
       </c>
       <c r="EE16" t="n">
-        <v>2.68327203230001e-05</v>
+        <v>6.656715868302854e-06</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.0001047873520292342</v>
+        <v>1.576092245159089e-06</v>
       </c>
       <c r="EG16" t="n">
-        <v>5.583022357313894e-06</v>
+        <v>6.083713287807768e-06</v>
       </c>
       <c r="EH16" t="n">
-        <v>8.021041139727458e-06</v>
+        <v>1.725515517136955e-06</v>
       </c>
       <c r="EI16" t="n">
-        <v>2.121761099260766e-06</v>
+        <v>1.702673398540355e-05</v>
       </c>
       <c r="EJ16" t="n">
-        <v>5.306786624714732e-05</v>
+        <v>8.247155165008735e-06</v>
       </c>
       <c r="EK16" t="n">
-        <v>6.596997991437092e-06</v>
+        <v>8.828307727526408e-06</v>
       </c>
       <c r="EL16" t="n">
-        <v>2.686517109395936e-05</v>
+        <v>8.815259207040071e-06</v>
       </c>
       <c r="EM16" t="n">
-        <v>8.173197420546785e-05</v>
+        <v>3.067561920033768e-06</v>
       </c>
       <c r="EN16" t="n">
-        <v>7.470421405741945e-05</v>
+        <v>3.71537726095994e-06</v>
       </c>
       <c r="EO16" t="n">
-        <v>6.036346894688904e-05</v>
+        <v>5.267805136099923e-06</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.0001570505264680833</v>
+        <v>7.737598025414627e-06</v>
       </c>
       <c r="EQ16" t="n">
-        <v>1.199117468786426e-05</v>
+        <v>8.783470548223704e-06</v>
       </c>
       <c r="ER16" t="n">
-        <v>1.120310662372503e-05</v>
+        <v>2.621421572257532e-06</v>
       </c>
       <c r="ES16" t="n">
-        <v>6.861445581307635e-05</v>
+        <v>3.912513193427003e-07</v>
       </c>
       <c r="ET16" t="n">
-        <v>5.384367977967486e-05</v>
+        <v>1.877669637906365e-05</v>
       </c>
       <c r="EU16" t="n">
-        <v>3.151572309434414e-05</v>
+        <v>1.781795799615793e-05</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.0001248762127943337</v>
+        <v>2.018336272158194e-05</v>
       </c>
       <c r="EW16" t="n">
-        <v>6.058972212485969e-05</v>
+        <v>2.958558070531581e-05</v>
       </c>
       <c r="EX16" t="n">
-        <v>1.487694316892885e-05</v>
+        <v>6.549867521243868e-06</v>
       </c>
       <c r="EY16" t="n">
-        <v>8.729036198928952e-05</v>
+        <v>1.344643624179298e-05</v>
       </c>
       <c r="EZ16" t="n">
-        <v>3.046338679268956e-05</v>
+        <v>4.667273969971575e-06</v>
       </c>
       <c r="FA16" t="n">
-        <v>3.447939434408909e-06</v>
+        <v>1.370563677483005e-05</v>
       </c>
       <c r="FB16" t="n">
-        <v>9.344091085949913e-05</v>
+        <v>1.957395625140634e-06</v>
       </c>
       <c r="FC16" t="n">
-        <v>1.258115935343085e-05</v>
+        <v>7.409650606859941e-06</v>
       </c>
       <c r="FD16" t="n">
-        <v>9.707532626634929e-06</v>
+        <v>8.633493052911945e-06</v>
       </c>
       <c r="FE16" t="n">
-        <v>4.243234798195772e-05</v>
+        <v>4.249952326063067e-06</v>
       </c>
       <c r="FF16" t="n">
-        <v>1.914005406433716e-05</v>
+        <v>6.541444008689723e-07</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.0001655807864153758</v>
+        <v>1.908342528622597e-05</v>
       </c>
       <c r="FH16" t="n">
-        <v>7.619056850671768e-05</v>
+        <v>1.640394657442812e-05</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.0001376665459247306</v>
+        <v>7.865729457989801e-06</v>
       </c>
       <c r="FJ16" t="n">
-        <v>1.390772104059579e-05</v>
+        <v>3.382412614882924e-06</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.0001403102360200137</v>
+        <v>1.847177009040024e-05</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.0002254709252156317</v>
+        <v>7.282735623448389e-07</v>
       </c>
       <c r="FM16" t="n">
-        <v>6.053418837836944e-05</v>
+        <v>5.012732799514197e-06</v>
       </c>
       <c r="FN16" t="n">
-        <v>9.747980584506877e-06</v>
+        <v>7.824158274161164e-06</v>
       </c>
       <c r="FO16" t="n">
-        <v>5.681250695488416e-05</v>
+        <v>1.71109422808513e-05</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.0003680669178720564</v>
+        <v>6.59998750052182e-06</v>
       </c>
       <c r="FQ16" t="n">
-        <v>6.047015631338581e-05</v>
+        <v>1.23727577374666e-05</v>
       </c>
       <c r="FR16" t="n">
-        <v>5.683230483555235e-05</v>
+        <v>1.607737976883072e-05</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.0001168163435067981</v>
+        <v>1.653865547268651e-05</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.0001078927671187557</v>
+        <v>3.764195753319655e-06</v>
       </c>
       <c r="FU16" t="n">
-        <v>5.605765909422189e-05</v>
+        <v>2.112010224664118e-05</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.000106043073174078</v>
+        <v>1.142515611718409e-05</v>
       </c>
       <c r="FW16" t="n">
-        <v>8.307113603223115e-06</v>
+        <v>1.185492692457046e-06</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.000159539733431302</v>
+        <v>9.243560270988382e-06</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.0001712026714812964</v>
+        <v>1.432770386600168e-05</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.0001477469195378944</v>
+        <v>1.412886103935307e-05</v>
       </c>
       <c r="GA16" t="n">
-        <v>5.18000524607487e-06</v>
+        <v>5.436692390503595e-06</v>
       </c>
       <c r="GB16" t="n">
-        <v>1.464031174691627e-05</v>
+        <v>4.803519914275967e-06</v>
       </c>
       <c r="GC16" t="n">
-        <v>4.446908133104444e-05</v>
+        <v>1.199330745293992e-05</v>
       </c>
       <c r="GD16" t="n">
-        <v>3.470958836260252e-05</v>
+        <v>2.131497967639007e-05</v>
       </c>
       <c r="GE16" t="n">
-        <v>3.284833292127587e-05</v>
+        <v>2.415161179669667e-05</v>
       </c>
       <c r="GF16" t="n">
-        <v>2.297085302416235e-06</v>
+        <v>9.529736416880041e-06</v>
       </c>
       <c r="GG16" t="n">
-        <v>4.677901961258613e-05</v>
+        <v>6.810800186940469e-06</v>
       </c>
     </row>
   </sheetData>
